--- a/RESULT.xlsx
+++ b/RESULT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\doors\Code\GTCLU\gtclu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F47952-6C81-445B-894D-FEFC93072493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7471F6C-4344-4EF8-A0D6-B887527BDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-8310" windowWidth="16440" windowHeight="28320" xr2:uid="{4F7C4B3E-96C8-491D-87E0-B7A086813C9A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
   <si>
     <t>purity</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -430,6 +430,10 @@
   </si>
   <si>
     <t>s4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTCLU-fast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3508,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF86EB3-EC57-4520-A5AB-13ECC4A94637}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3527,7 +3531,7 @@
     <col min="13" max="13" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -3543,8 +3547,15 @@
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3578,8 +3589,23 @@
       <c r="O2" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3645,26 @@
       <c r="O3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>0.99488842882753503</v>
+      </c>
+      <c r="T3">
+        <v>0.99140764319783703</v>
+      </c>
+      <c r="U3">
+        <v>0.99746192893400998</v>
+      </c>
+      <c r="V3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="W3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3660,8 +3704,26 @@
       <c r="O4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="R4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>0.97167777687458401</v>
+      </c>
+      <c r="T4">
+        <v>0.947506513412402</v>
+      </c>
+      <c r="U4">
+        <v>0.98492462311557705</v>
+      </c>
+      <c r="V4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3701,8 +3763,26 @@
       <c r="O5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="R5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>0.81080696773635397</v>
+      </c>
+      <c r="T5">
+        <v>0.89443083866564299</v>
+      </c>
+      <c r="U5">
+        <v>0.88967741935483802</v>
+      </c>
+      <c r="V5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3742,8 +3822,26 @@
       <c r="O6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="R6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6">
+        <v>0.96079596665952305</v>
+      </c>
+      <c r="T6">
+        <v>0.91102907909350594</v>
+      </c>
+      <c r="U6">
+        <v>0.99166666666659997</v>
+      </c>
+      <c r="V6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3783,8 +3881,26 @@
       <c r="O7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="R7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>0.93845696846854298</v>
+      </c>
+      <c r="T7">
+        <v>0.875120408886499</v>
+      </c>
+      <c r="U7">
+        <v>0.9853515625</v>
+      </c>
+      <c r="V7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3824,8 +3940,26 @@
       <c r="O8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="R8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>0.99804687453479302</v>
+      </c>
+      <c r="T8">
+        <v>0.99441077466883598</v>
+      </c>
+      <c r="U8">
+        <v>0.99951171875</v>
+      </c>
+      <c r="V8">
+        <v>0.114</v>
+      </c>
+      <c r="W8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3865,8 +3999,26 @@
       <c r="O9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" s="15" customFormat="1">
+      <c r="R9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="15" customFormat="1">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -3906,8 +4058,26 @@
       <c r="O10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="R10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="15">
+        <v>1</v>
+      </c>
+      <c r="T10" s="15">
+        <v>1</v>
+      </c>
+      <c r="U10" s="15">
+        <v>1</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="W10" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3947,8 +4117,26 @@
       <c r="O11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="R11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>0.94956110712073805</v>
+      </c>
+      <c r="T11">
+        <v>0.924173240355883</v>
+      </c>
+      <c r="U11">
+        <v>0.98333333333329997</v>
+      </c>
+      <c r="V11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="W11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -3988,8 +4176,26 @@
       <c r="O12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="R12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12">
+        <v>0.98569295283665803</v>
+      </c>
+      <c r="T12">
+        <v>0.98764561473694801</v>
+      </c>
+      <c r="U12">
+        <v>0.99333333329999995</v>
+      </c>
+      <c r="V12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="W12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -4029,8 +4235,26 @@
       <c r="O13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="R13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -4050,8 +4274,9 @@
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
@@ -4071,8 +4296,9 @@
         <v>1</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,8 +4338,26 @@
       <c r="O16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="R16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S16">
+        <v>0.46626702900174699</v>
+      </c>
+      <c r="T16">
+        <v>0.57804075802155297</v>
+      </c>
+      <c r="U16">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="V16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -4133,8 +4377,9 @@
         <v>1</v>
       </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -4165,8 +4410,23 @@
         <f>AVERAGE(L3:L13)</f>
         <v>0.98311883810482459</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="R18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18">
+        <f>AVERAGE(S3:S13)</f>
+        <v>0.96453882209624808</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGE(T3:T13)</f>
+        <v>0.95688401027432313</v>
+      </c>
+      <c r="U18">
+        <f>AVERAGE(U3:U13)</f>
+        <v>0.98411459872312068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="18" t="s">
         <v>40</v>
       </c>
@@ -4176,7 +4436,7 @@
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:21">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -4196,7 +4456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -4216,7 +4476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4236,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -4256,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4276,7 +4536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -4296,7 +4556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4316,7 +4576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -4336,7 +4596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="15" customFormat="1">
+    <row r="31" spans="1:21" s="15" customFormat="1">
       <c r="A31" s="14" t="s">
         <v>10</v>
       </c>
@@ -4356,7 +4616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -4515,10 +4775,11 @@
       <c r="E39" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="R1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6122,14 +6383,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="L11:T11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="AB15:AB17"/>
     <mergeCell ref="AF15:AF17"/>
     <mergeCell ref="AH15:AI17"/>
@@ -6140,16 +6403,14 @@
     <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="AG13:AI13"/>
     <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="L11:T11"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RESULT.xlsx
+++ b/RESULT.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\doors\Code\GTCLU\gtclu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7471F6C-4344-4EF8-A0D6-B887527BDF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540E0D78-A8F2-49D7-A904-16F7A5AF1D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-8310" windowWidth="16440" windowHeight="28320" xr2:uid="{4F7C4B3E-96C8-491D-87E0-B7A086813C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="quality" sheetId="1" r:id="rId1"/>
     <sheet name="datasets" sheetId="2" r:id="rId2"/>
-    <sheet name="design" sheetId="4" r:id="rId3"/>
-    <sheet name="TIME" sheetId="3" r:id="rId4"/>
+    <sheet name="time-compare" sheetId="5" r:id="rId3"/>
+    <sheet name="design" sheetId="4" r:id="rId4"/>
+    <sheet name="TIME" sheetId="3" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="129">
   <si>
     <t>purity</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -103,10 +104,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GMCLU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据集</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t>G2-4-30</t>
-  </si>
-  <si>
-    <t>Iris</t>
   </si>
   <si>
     <t>Jain</t>
@@ -397,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Birch1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +425,160 @@
   <si>
     <t>GTCLU-fast</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2-8-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skewed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbalance2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyperP</t>
+  </si>
+  <si>
+    <t>unbalance2</t>
+  </si>
+  <si>
+    <t>urbanGB</t>
+  </si>
+  <si>
+    <t>worms</t>
+  </si>
+  <si>
+    <t>3D_spatial_network</t>
+  </si>
+  <si>
+    <t>ConfLongDemo_JSI_164860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>Iris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> eeg-eye-state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powersupply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRIDCLU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10k-10d-5c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtclu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50k-20d-10c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbscan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ari</t>
+  </si>
+  <si>
+    <t>ami</t>
+  </si>
+  <si>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>intervals</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>g2-2-30</t>
+  </si>
+  <si>
+    <t>g2-8-30</t>
+  </si>
+  <si>
+    <t>jain</t>
+  </si>
+  <si>
+    <t>pathbased</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>skewed</t>
+  </si>
+  <si>
+    <t>letter</t>
   </si>
 </sst>
 </file>
@@ -489,7 +633,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +658,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -529,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,8 +737,20 @@
     <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,6 +763,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3512,10 +3701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF86EB3-EC57-4520-A5AB-13ECC4A94637}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3528,34 +3717,26 @@
     <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="I1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="R1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-    </row>
-    <row r="2" spans="1:23">
+    <row r="1" spans="1:14">
+      <c r="A1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="I1" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3566,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
@@ -3581,1205 +3762,2638 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.99</v>
+        <v>0.99619391544300795</v>
       </c>
       <c r="C3">
-        <v>0.98599999999999999</v>
+        <v>0.99331270341428901</v>
       </c>
       <c r="D3">
-        <v>0.997</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.99873096446700504</v>
+      </c>
+      <c r="E3">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>0.995817429605796</v>
+        <v>0.964330198737544</v>
       </c>
       <c r="K3">
-        <v>0.99303470408718997</v>
+        <v>0.94603765472993395</v>
       </c>
       <c r="L3">
-        <v>0.99873096446700504</v>
+        <v>0.993654822335025</v>
       </c>
       <c r="M3">
-        <v>4.7E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N3">
-        <v>14</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3">
-        <v>0.99488842882753503</v>
-      </c>
-      <c r="T3">
-        <v>0.99140764319783703</v>
-      </c>
-      <c r="U3">
-        <v>0.99746192893400998</v>
-      </c>
-      <c r="V3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="W3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.93203455856700002</v>
+        <v>0.97725983377088299</v>
       </c>
       <c r="C4">
-        <v>0.88071093698303704</v>
+        <v>0.95854966579129697</v>
       </c>
       <c r="D4">
-        <v>0.95477386934673303</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>0.98492462311557705</v>
+      </c>
+      <c r="E4">
+        <v>7.8E-2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0.94874187097316398</v>
+        <v>0.91651889648177198</v>
       </c>
       <c r="K4">
-        <v>0.91616724765649504</v>
+        <v>0.77130414962135996</v>
       </c>
       <c r="L4">
-        <v>0.95979899497487398</v>
+        <v>0.99497487437185905</v>
       </c>
       <c r="M4">
-        <v>3.9E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4">
-        <v>0.97167777687458401</v>
-      </c>
-      <c r="T4">
-        <v>0.947506513412402</v>
-      </c>
-      <c r="U4">
-        <v>0.98492462311557705</v>
-      </c>
-      <c r="V4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.81350113371383204</v>
+        <v>0.83635218289614099</v>
       </c>
       <c r="C5">
-        <v>0.89404822742444101</v>
+        <v>0.90698119971895697</v>
       </c>
       <c r="D5">
-        <v>0.89032258064516101</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>0.05</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J5">
-        <v>0.83832838932096698</v>
+        <v>0.73339167322598098</v>
       </c>
       <c r="K5">
-        <v>0.90576869902277102</v>
+        <v>0.83559361053841896</v>
       </c>
       <c r="L5">
-        <v>0.90258064516129</v>
+        <v>0.92774193548387096</v>
       </c>
       <c r="M5">
-        <v>2.5999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N5">
-        <v>14</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5">
-        <v>0.81080696773635397</v>
-      </c>
-      <c r="T5">
-        <v>0.89443083866564299</v>
-      </c>
-      <c r="U5">
-        <v>0.88967741935483802</v>
-      </c>
-      <c r="V5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="W5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.98235818499678496</v>
+        <v>0.97148543882166305</v>
       </c>
       <c r="C6">
-        <v>0.95985781316973195</v>
+        <v>0.93458172786764404</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>0.99583333333333302</v>
+      </c>
+      <c r="E6">
+        <v>0.11</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.96079596665952305</v>
+        <v>0.932980550139484</v>
       </c>
       <c r="K6">
-        <v>0.91102907909350594</v>
+        <v>0.85263132634739902</v>
       </c>
       <c r="L6">
-        <v>0.99166666666659997</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="M6">
-        <v>5.2999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>0.96079596665952305</v>
-      </c>
-      <c r="T6">
-        <v>0.91102907909350594</v>
-      </c>
-      <c r="U6">
-        <v>0.99166666666659997</v>
-      </c>
-      <c r="V6">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.91961242172097601</v>
+        <v>0.940365333894988</v>
       </c>
       <c r="C7">
-        <v>0.85031052746861102</v>
+        <v>0.87827188534604606</v>
       </c>
       <c r="D7">
-        <v>0.97998046875</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>0.986328125</v>
+      </c>
+      <c r="E7">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7">
-        <v>0.93845696846854298</v>
+        <v>0.885425465585014</v>
       </c>
       <c r="K7">
-        <v>0.875120408886499</v>
+        <v>0.75459198415485695</v>
       </c>
       <c r="L7">
-        <v>0.9853515625</v>
+        <v>0.99267578125</v>
       </c>
       <c r="M7">
-        <v>4.3999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="N7">
-        <v>23</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7">
-        <v>0.93845696846854298</v>
-      </c>
-      <c r="T7">
-        <v>0.875120408886499</v>
-      </c>
-      <c r="U7">
-        <v>0.9853515625</v>
-      </c>
-      <c r="V7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="W7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.99317312195375895</v>
+        <v>0.99512146836716597</v>
       </c>
       <c r="C8">
-        <v>0.98145994506941503</v>
+        <v>0.98663658300573798</v>
       </c>
       <c r="D8">
-        <v>0.99853515625</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.16700000000000001</v>
+        <v>0.9990234375</v>
+      </c>
+      <c r="E8">
+        <v>0.17899999999999999</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J8">
-        <v>0.99804687453479302</v>
+        <v>0.96326019751687197</v>
       </c>
       <c r="K8">
-        <v>0.99441077466883598</v>
+        <v>0.90341062789888504</v>
       </c>
       <c r="L8">
         <v>0.99951171875</v>
       </c>
       <c r="M8">
+        <v>0.104</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.35</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9">
+        <v>0.85800165016027197</v>
+      </c>
+      <c r="K9">
+        <v>0.69295363087752504</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0.98211749283636895</v>
+      </c>
+      <c r="K10">
+        <v>0.97117196219265101</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="18" customFormat="1">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="18">
+        <v>12</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
+        <v>1</v>
+      </c>
+      <c r="M11" s="18">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.94913560275238396</v>
+      </c>
+      <c r="C12">
+        <v>0.92394205840614596</v>
+      </c>
+      <c r="D12">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>0.74470684377006602</v>
+      </c>
+      <c r="K12">
+        <v>0.75219076004641205</v>
+      </c>
+      <c r="L12">
+        <v>0.92333333333333301</v>
+      </c>
+      <c r="M12">
+        <v>0.122</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="18" customFormat="1">
+      <c r="A13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0.98569295283665803</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.98764561473694801</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.99333333329999995</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F13" s="18">
+        <v>13</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0.94292458120961098</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0.95498249296660698</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0.99166666666666603</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>0.61869151230444197</v>
+      </c>
+      <c r="K14">
+        <v>0.69298808399965806</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>0.97748377533677699</v>
+      </c>
+      <c r="C15">
+        <v>0.97485739277820904</v>
+      </c>
+      <c r="D15">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="E15">
+        <v>0.05</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15">
+        <v>0.94445216188592396</v>
+      </c>
+      <c r="K15">
+        <v>0.942805682480369</v>
+      </c>
+      <c r="L15">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="M15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16">
+        <v>0.74068751649089704</v>
+      </c>
+      <c r="C16">
+        <v>0.86821671143843004</v>
+      </c>
+      <c r="D16">
+        <v>0.8196</v>
+      </c>
+      <c r="E16">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16">
+        <v>0.72111108898964205</v>
+      </c>
+      <c r="K16">
+        <v>0.77259981473334505</v>
+      </c>
+      <c r="L16">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.01</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>0.46651246682838698</v>
+      </c>
+      <c r="C17">
+        <v>0.57857678208466601</v>
+      </c>
+      <c r="D17">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <v>0.43927709460714098</v>
+      </c>
+      <c r="K17">
+        <v>0.55129757800312396</v>
+      </c>
+      <c r="L17">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="M17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>0.44619959845401003</v>
+      </c>
+      <c r="C18">
+        <v>0.53476607447140001</v>
+      </c>
+      <c r="D18">
+        <v>0.7974</v>
+      </c>
+      <c r="E18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18">
+        <v>0.45256530795441302</v>
+      </c>
+      <c r="K18">
+        <v>0.53551593909619</v>
+      </c>
+      <c r="L18">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="M18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>0.98951324153590303</v>
+      </c>
+      <c r="C19">
+        <v>0.98545734106368199</v>
+      </c>
+      <c r="D19">
+        <v>0.999</v>
+      </c>
+      <c r="E19">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19">
+        <v>0.98455763650941897</v>
+      </c>
+      <c r="K19">
+        <v>0.978964296940388</v>
+      </c>
+      <c r="L19">
+        <v>0.997</v>
+      </c>
+      <c r="M19">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>0.99965310647317396</v>
+      </c>
+      <c r="C20">
+        <v>0.99682228922282001</v>
+      </c>
+      <c r="D20">
+        <v>0.99923076923076903</v>
+      </c>
+      <c r="E20">
+        <v>0.126</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20">
+        <v>0.99952743502390196</v>
+      </c>
+      <c r="K20">
+        <v>0.98785365257139002</v>
+      </c>
+      <c r="L20">
+        <v>0.99969230769230699</v>
+      </c>
+      <c r="M20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>0.14217859938247401</v>
+      </c>
+      <c r="C21">
+        <v>0.44899826541089</v>
+      </c>
+      <c r="D21">
+        <v>0.67025000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21">
+        <v>7.1128197250215006E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.32831321302556898</v>
+      </c>
+      <c r="L21">
+        <v>0.70860000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.156</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B3:B21)</f>
+        <v>0.8638860543833955</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:D22" si="0">AVERAGE(C3:C21)</f>
+        <v>0.89250612077669278</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.94402041680421134</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGE(J3:J21)</f>
+        <v>0.7976298939046359</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:L22" si="1">AVERAGE(K3:K21)</f>
+        <v>0.8013266558012675</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.95596586525700322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="I26" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.98980056671120997</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.98492235722101895</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.99492385786801996</v>
+      </c>
+      <c r="E28" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.97814042525377198</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.96378738351133897</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.98857868020304496</v>
+      </c>
+      <c r="M28" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.92645830603398205</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.88841758029178697</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.93969849246231096</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.92645830603398205</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.88841758029178697</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.93969849246231096</v>
+      </c>
+      <c r="M29" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.83662195407008499</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.91455212678842801</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.88193548387096699</v>
+      </c>
+      <c r="E30">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.79685313392780499</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.89703895033360503</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.86322580645161295</v>
+      </c>
+      <c r="M30">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.97148543882166305</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.93458172786764404</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.99583333333333302</v>
+      </c>
+      <c r="E31">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.96036664154162499</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.91672488890575499</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.99583333333333302</v>
+      </c>
+      <c r="M31">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.91212897037516105</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.83685546465590399</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.9775390625</v>
+      </c>
+      <c r="E32">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.91399906046617796</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.84110100530100895</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.978515625</v>
+      </c>
+      <c r="M32">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.99220179540084597</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.97917634818868204</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.99853515625</v>
+      </c>
+      <c r="E33">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.99220179540084597</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.97917634818868204</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.99853515625</v>
+      </c>
+      <c r="M33">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="N33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.84890448385198602</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.79472832630370804</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.96240234375</v>
+      </c>
+      <c r="E34">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.84890448385198602</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.79472832630370804</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.96240234375</v>
+      </c>
+      <c r="M34">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.93832689669098501</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.89489884601953795</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.99333333333333296</v>
+      </c>
+      <c r="E35">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.93832689669098501</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.89489884601953795</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.99333333333333296</v>
+      </c>
+      <c r="M35">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="18" customFormat="1">
+      <c r="A36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F36" s="18">
+        <v>12</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="19">
+        <v>0.97748985275225497</v>
+      </c>
+      <c r="K36" s="19">
+        <v>0.94953115099740604</v>
+      </c>
+      <c r="L36" s="19">
+        <v>0.99463806970509305</v>
+      </c>
+      <c r="M36" s="18">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N36" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.91951812480887296</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.88676524695971604</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.97333333333333305</v>
+      </c>
+      <c r="E37">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.94938055664328203</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.92251832558659197</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="M37">
+        <v>0.123</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="18" customFormat="1">
+      <c r="A38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="19">
+        <v>0.98925999524667096</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0.99163077775027897</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0.995</v>
+      </c>
+      <c r="E38" s="18">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>29</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0.97791907985096804</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0.97978505817276496</v>
+      </c>
+      <c r="L38" s="19">
+        <v>0.98833333333333295</v>
+      </c>
+      <c r="M38" s="18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N38" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.97402388703893406</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.97116144627002998</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="E40">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F40">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.97490616704533695</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.97195403074333697</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="M40">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.75269436318745497</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.87780281327832699</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="E41">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.75332192548521903</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.88065368685412804</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="M41">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.42146609926539103</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.60669436213387895</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="E42">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.42146609926539103</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.60669436213387895</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="M42">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.42504740636313798</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.54201172133865205</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.7298</v>
+      </c>
+      <c r="E43">
+        <v>0.01</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.42504740636313798</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.54201172133865205</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.7298</v>
+      </c>
+      <c r="M43">
+        <v>0.01</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.97930048715363505</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.97191176321457495</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="E44">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.97930048715363505</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.97191176321457495</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="M44">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.99949512615652802</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.992628986464823</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.99861538461538402</v>
+      </c>
+      <c r="E45">
+        <v>0.05</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.99949512615652802</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.992628986464823</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.99861538461538402</v>
+      </c>
+      <c r="M45">
+        <v>0.05</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="5">
+        <v>9.2193245401697502E-2</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.47296770801006399</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.55354999999999999</v>
+      </c>
+      <c r="E46">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" s="5">
+        <v>9.2193245401697502E-2</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.47296770801006399</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.55354999999999999</v>
+      </c>
+      <c r="M46">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="8">
+        <f>AVERAGE(B28:B46)</f>
+        <v>0.84046984981990736</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" ref="C47:D47" si="2">AVERAGE(C28:C46)</f>
+        <v>0.87061618961879228</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="2"/>
+        <v>0.91511051480614092</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="I47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="8">
+        <f>AVERAGE(J28:J46)</f>
+        <v>0.83714582575182261</v>
+      </c>
+      <c r="K47" s="8">
+        <f t="shared" ref="K47:L47" si="3">AVERAGE(K28:K46)</f>
+        <v>0.86665948012482341</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="3"/>
+        <v>0.91372594167214627</v>
+      </c>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="I53" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>0.80894341703609296</v>
+      </c>
+      <c r="C55">
+        <v>0.88823108107968696</v>
+      </c>
+      <c r="D55">
+        <v>0.82741116751268995</v>
+      </c>
+      <c r="E55" s="2">
+        <v>11</v>
+      </c>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>0.910592424641953</v>
+      </c>
+      <c r="C56">
+        <v>0.74223952689610895</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>11</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J56" s="26">
+        <v>0.97150336940493298</v>
+      </c>
+      <c r="K56" s="26">
+        <v>0.95744261438547396</v>
+      </c>
+      <c r="L56" s="26">
+        <v>0.99492385786801996</v>
+      </c>
+      <c r="M56" s="28">
+        <v>37</v>
+      </c>
+      <c r="N56" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>0.66488631777496698</v>
+      </c>
+      <c r="C57">
+        <v>0.80382510180018696</v>
+      </c>
+      <c r="D57">
+        <v>0.90967741935483803</v>
+      </c>
+      <c r="E57" s="2">
+        <v>14</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="26">
+        <v>0.92299913863670502</v>
+      </c>
+      <c r="K57" s="26">
+        <v>0.78654730601296197</v>
+      </c>
+      <c r="L57" s="26">
+        <v>0.99497487437185905</v>
+      </c>
+      <c r="M57" s="28">
+        <v>23</v>
+      </c>
+      <c r="N57" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>0.91678063288232903</v>
+      </c>
+      <c r="C58">
+        <v>0.84201930527027802</v>
+      </c>
+      <c r="D58">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="26">
+        <v>0.64322246058663901</v>
+      </c>
+      <c r="K58" s="26">
+        <v>0.85824696188370098</v>
+      </c>
+      <c r="L58" s="26">
+        <v>0.71096774193548296</v>
+      </c>
+      <c r="M58" s="28">
+        <v>48</v>
+      </c>
+      <c r="N58" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>0.67975615842179005</v>
+      </c>
+      <c r="C59">
+        <v>0.50693126471548899</v>
+      </c>
+      <c r="D59">
+        <v>0.994140625</v>
+      </c>
+      <c r="E59" s="2">
+        <v>14</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="26">
+        <v>0.86505680835324905</v>
+      </c>
+      <c r="K59" s="26">
+        <v>0.73072555421170904</v>
+      </c>
+      <c r="L59" s="26">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="M59" s="28">
+        <v>21</v>
+      </c>
+      <c r="N59" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>0.84899995513297899</v>
+      </c>
+      <c r="C60">
+        <v>0.68554776805143203</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>19</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J60" s="26">
+        <v>0.85625254022409003</v>
+      </c>
+      <c r="K60" s="26">
+        <v>0.70439773176820697</v>
+      </c>
+      <c r="L60" s="26">
+        <v>0.9921875</v>
+      </c>
+      <c r="M60" s="28">
+        <v>50</v>
+      </c>
+      <c r="N60" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61">
+        <v>0.99902391387172396</v>
+      </c>
+      <c r="C61">
+        <v>0.99721198897414798</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>25</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="26">
+        <v>0.96813792823407796</v>
+      </c>
+      <c r="K61" s="26">
+        <v>0.93537950112183599</v>
+      </c>
+      <c r="L61" s="26">
+        <v>0.9951171875</v>
+      </c>
+      <c r="M61" s="28">
+        <v>2</v>
+      </c>
+      <c r="N61" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>0.99114064902238896</v>
+      </c>
+      <c r="C62">
+        <v>0.97467504426362095</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>11</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="26"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="15">
+        <v>0.89759140572609897</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0.67193982033220701</v>
+      </c>
+      <c r="D63" s="15">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16">
+        <v>11</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="I63" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="26">
+        <v>1</v>
+      </c>
+      <c r="K63" s="26">
+        <v>1</v>
+      </c>
+      <c r="L63" s="26">
+        <v>1</v>
+      </c>
+      <c r="M63" s="28">
+        <v>3</v>
+      </c>
+      <c r="N63" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>0.50359288640684396</v>
+      </c>
+      <c r="C64">
+        <v>0.58880242885871603</v>
+      </c>
+      <c r="D64">
+        <v>0.94333333333333302</v>
+      </c>
+      <c r="E64" s="2">
+        <v>11</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J64" s="30">
+        <v>0.99708242416665105</v>
+      </c>
+      <c r="K64" s="30">
+        <v>0.98707628166359496</v>
+      </c>
+      <c r="L64" s="30">
+        <v>1</v>
+      </c>
+      <c r="M64" s="31">
+        <v>14</v>
+      </c>
+      <c r="N64" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>0.89746523380307797</v>
+      </c>
+      <c r="C65">
+        <v>0.95331404767448003</v>
+      </c>
+      <c r="D65">
+        <v>0.93166666666666598</v>
+      </c>
+      <c r="E65" s="2">
+        <v>13</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="26">
+        <v>0.67464346712172296</v>
+      </c>
+      <c r="K65" s="26">
+        <v>0.67293050749263195</v>
+      </c>
+      <c r="L65" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="M65" s="28">
+        <v>22</v>
+      </c>
+      <c r="N65" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>10</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="26">
+        <v>0.81691485435766098</v>
+      </c>
+      <c r="K66" s="26">
+        <v>0.88795388766495498</v>
+      </c>
+      <c r="L66" s="26">
+        <v>0.87</v>
+      </c>
+      <c r="M66" s="28">
+        <v>24</v>
+      </c>
+      <c r="N66" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>0.87935238589385101</v>
+      </c>
+      <c r="C67">
+        <v>0.88487366188489902</v>
+      </c>
+      <c r="D67">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="E67" s="2">
+        <v>15</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="26">
+        <v>0.62914653806141196</v>
+      </c>
+      <c r="K67" s="26">
+        <v>0.72545633265926301</v>
+      </c>
+      <c r="L67" s="26">
+        <v>1</v>
+      </c>
+      <c r="M67" s="28">
+        <v>17</v>
+      </c>
+      <c r="N67" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68">
+        <v>0.66803852453759405</v>
+      </c>
+      <c r="C68">
+        <v>0.77063492857444404</v>
+      </c>
+      <c r="D68">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="E68" s="2">
+        <v>15</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J68" s="26">
+        <v>0.89100461147555698</v>
+      </c>
+      <c r="K68" s="26">
+        <v>0.91655056795585399</v>
+      </c>
+      <c r="L68" s="26">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="M68" s="28">
+        <v>36</v>
+      </c>
+      <c r="N68" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>0.36779228380114998</v>
+      </c>
+      <c r="C69">
+        <v>0.50494280275830705</v>
+      </c>
+      <c r="D69">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="E69" s="2">
+        <v>16</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J69" s="26">
+        <v>0.626100471988837</v>
+      </c>
+      <c r="K69" s="26">
+        <v>0.79669082798715796</v>
+      </c>
+      <c r="L69" s="26">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="M69" s="28">
+        <v>40</v>
+      </c>
+      <c r="N69" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70">
+        <v>0.410277843659969</v>
+      </c>
+      <c r="C70">
+        <v>0.49812160155734703</v>
+      </c>
+      <c r="D70">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="E70" s="2">
+        <v>16</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J70" s="26">
+        <v>0.287202415394539</v>
+      </c>
+      <c r="K70" s="26">
+        <v>0.56711316433660497</v>
+      </c>
+      <c r="L70" s="26">
+        <v>0.4748</v>
+      </c>
+      <c r="M70" s="28">
+        <v>35</v>
+      </c>
+      <c r="N70" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71">
+        <v>0.91043426841312802</v>
+      </c>
+      <c r="C71">
+        <v>0.90628929743792397</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>13</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J71" s="26">
+        <v>0.18528627480561399</v>
+      </c>
+      <c r="K71" s="26">
+        <v>0.47186616909100298</v>
+      </c>
+      <c r="L71" s="26">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M71" s="28">
+        <v>39</v>
+      </c>
+      <c r="N71" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72">
+        <v>0.99926611181615399</v>
+      </c>
+      <c r="C72">
+        <v>0.98670393133071299</v>
+      </c>
+      <c r="D72">
+        <v>0.99969230769230699</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J72" s="26">
+        <v>0.97946359752008805</v>
+      </c>
+      <c r="K72" s="26">
+        <v>0.97240780386456604</v>
+      </c>
+      <c r="L72" s="26">
+        <v>0.999</v>
+      </c>
+      <c r="M72" s="26">
+        <v>32</v>
+      </c>
+      <c r="N72" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>4.0649999999999999E-2</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="26">
+        <v>0.999424828458087</v>
+      </c>
+      <c r="K73" s="26">
+        <v>0.99073008975336996</v>
+      </c>
+      <c r="L73" s="26">
+        <v>0.99938461538461498</v>
+      </c>
+      <c r="M73" s="26">
+        <v>27</v>
+      </c>
+      <c r="N73" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1"/>
+      <c r="B74">
+        <f>AVERAGE(B55:B73)</f>
+        <v>0.75547023225484689</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C74:D74" si="4">AVERAGE(C55:C73)</f>
+        <v>0.74770018955052564</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>0.90796341331016672</v>
+      </c>
+      <c r="I74" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J74" s="26">
+        <v>0</v>
+      </c>
+      <c r="K74" s="26">
+        <v>0</v>
+      </c>
+      <c r="L74" s="26">
+        <v>4.0649999999999999E-2</v>
+      </c>
+      <c r="M74" s="26">
+        <v>1</v>
+      </c>
+      <c r="N74" s="26"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>0.99488842882753503</v>
+      </c>
+      <c r="C79">
+        <v>0.99140764319783703</v>
+      </c>
+      <c r="D79">
+        <v>0.99746192893400998</v>
+      </c>
+      <c r="E79">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>0.97167777687458401</v>
+      </c>
+      <c r="C80">
+        <v>0.947506513412402</v>
+      </c>
+      <c r="D80">
+        <v>0.98492462311557705</v>
+      </c>
+      <c r="E80">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>0.81080696773635397</v>
+      </c>
+      <c r="C81">
+        <v>0.89443083866564299</v>
+      </c>
+      <c r="D81">
+        <v>0.88967741935483802</v>
+      </c>
+      <c r="E81">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>0.96079596665952305</v>
+      </c>
+      <c r="C82">
+        <v>0.91102907909350594</v>
+      </c>
+      <c r="D82">
+        <v>0.99166666666659997</v>
+      </c>
+      <c r="E82">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>0.93845696846854298</v>
+      </c>
+      <c r="C83">
+        <v>0.875120408886499</v>
+      </c>
+      <c r="D83">
+        <v>0.9853515625</v>
+      </c>
+      <c r="E83">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>0.99804687453479302</v>
+      </c>
+      <c r="C84">
+        <v>0.99441077466883598</v>
+      </c>
+      <c r="D84">
+        <v>0.99951171875</v>
+      </c>
+      <c r="E84">
         <v>0.114</v>
       </c>
-      <c r="N8">
+      <c r="F84">
         <v>30</v>
       </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8">
-        <v>0.99804687453479302</v>
-      </c>
-      <c r="T8">
-        <v>0.99441077466883598</v>
-      </c>
-      <c r="U8">
-        <v>0.99951171875</v>
-      </c>
-      <c r="V8">
-        <v>0.114</v>
-      </c>
-      <c r="W8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.99114064902238896</v>
-      </c>
-      <c r="C9">
-        <v>0.97467504426362095</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>0.99512337662983796</v>
+      </c>
+      <c r="C85">
+        <v>0.98618839564535199</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
         <v>0.2</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0.2</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="15" customFormat="1">
-      <c r="A10" s="14" t="s">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F10" s="15">
-        <v>10</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15">
+      <c r="B87" s="15">
+        <v>1</v>
+      </c>
+      <c r="C87" s="15">
+        <v>1</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1</v>
+      </c>
+      <c r="E87" s="15">
         <v>0.05</v>
       </c>
-      <c r="N10" s="15">
+      <c r="F87" s="15">
         <v>12</v>
       </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="15">
-        <v>1</v>
-      </c>
-      <c r="T10" s="15">
-        <v>1</v>
-      </c>
-      <c r="U10" s="15">
-        <v>1</v>
-      </c>
-      <c r="V10" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="W10" s="15">
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <v>0.94956110712073805</v>
+      </c>
+      <c r="C88">
+        <v>0.924173240355883</v>
+      </c>
+      <c r="D88">
+        <v>0.98333333333329997</v>
+      </c>
+      <c r="E88">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.93945168101620702</v>
-      </c>
-      <c r="C11">
-        <v>0.91115759712329902</v>
-      </c>
-      <c r="D11">
-        <v>0.98</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11">
-        <v>0.94956110712073805</v>
-      </c>
-      <c r="K11">
-        <v>0.924173240355883</v>
-      </c>
-      <c r="L11">
-        <v>0.98333333333329997</v>
-      </c>
-      <c r="M11">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11">
-        <v>0.94956110712073805</v>
-      </c>
-      <c r="T11">
-        <v>0.924173240355883</v>
-      </c>
-      <c r="U11">
-        <v>0.98333333333329997</v>
-      </c>
-      <c r="V11">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="W11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0.98741089131195203</v>
-      </c>
-      <c r="C12">
-        <v>0.98917763999351804</v>
-      </c>
-      <c r="D12">
-        <v>0.995</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="F12">
+      <c r="B89">
+        <v>0.98569295283665803</v>
+      </c>
+      <c r="C89">
+        <v>0.98764561473694801</v>
+      </c>
+      <c r="D89">
+        <v>0.99333333329999995</v>
+      </c>
+      <c r="E89">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93">
+        <v>0.46626702900174699</v>
+      </c>
+      <c r="C93">
+        <v>0.57804075802155297</v>
+      </c>
+      <c r="D93">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="E93">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>0.98569295283665803</v>
-      </c>
-      <c r="K12">
-        <v>0.98764561473694801</v>
-      </c>
-      <c r="L12">
-        <v>0.99333333329999995</v>
-      </c>
-      <c r="M12">
-        <v>2.7E-2</v>
-      </c>
-      <c r="N12">
-        <v>13</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12">
-        <v>0.98569295283665803</v>
-      </c>
-      <c r="T12">
-        <v>0.98764561473694801</v>
-      </c>
-      <c r="U12">
-        <v>0.99333333329999995</v>
-      </c>
-      <c r="V12">
-        <v>2.7E-2</v>
-      </c>
-      <c r="W12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.9E-2</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>3.9E-2</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14">
-        <v>0.95762813169275196</v>
-      </c>
-      <c r="C14">
-        <v>0.95508048939774104</v>
-      </c>
-      <c r="D14">
-        <v>0.98180000000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.64999999999999E-2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15">
-        <v>0.71521232964772297</v>
-      </c>
-      <c r="C15">
-        <v>0.83250340114379895</v>
-      </c>
-      <c r="D15">
-        <v>0.84179999999999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.30999999999999E-2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16">
-        <v>0.46236060143330798</v>
-      </c>
-      <c r="C16">
-        <v>0.60892894894185601</v>
-      </c>
-      <c r="D16">
-        <v>0.6946</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.01999999999999E-2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16">
-        <v>0.46794144876641802</v>
-      </c>
-      <c r="K16">
-        <v>0.59119517224853102</v>
-      </c>
-      <c r="L16">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="M16">
-        <v>1.2599999999999899E-2</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S16">
-        <v>0.46626702900174699</v>
-      </c>
-      <c r="T16">
-        <v>0.57804075802155297</v>
-      </c>
-      <c r="U16">
-        <v>0.82320000000000004</v>
-      </c>
-      <c r="V16">
-        <v>1.2E-2</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17">
-        <v>0.45393753522749702</v>
-      </c>
-      <c r="C17">
-        <v>0.56921630550198699</v>
-      </c>
-      <c r="D17">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="E17" s="2">
-        <v>8.8999999999999895E-3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <f>AVERAGE(B3:B16)</f>
-        <v>0.90599169321976325</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18:D18" si="0">AVERAGE(C3:C16)</f>
-        <v>0.91599361221279063</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.95098657678513521</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18">
-        <f>AVERAGE(J3:J13)</f>
-        <v>0.96504014177456199</v>
-      </c>
-      <c r="K18">
-        <f>AVERAGE(K3:K13)</f>
-        <v>0.95521361531892068</v>
-      </c>
-      <c r="L18">
-        <f>AVERAGE(L3:L13)</f>
-        <v>0.98311883810482459</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18">
-        <f>AVERAGE(S3:S13)</f>
-        <v>0.96453882209624808</v>
-      </c>
-      <c r="T18">
-        <f>AVERAGE(T3:T13)</f>
-        <v>0.95688401027432313</v>
-      </c>
-      <c r="U18">
-        <f>AVERAGE(U3:U13)</f>
-        <v>0.98411459872312068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="E26">
-        <v>0.02</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="E27">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E28">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F28">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.997</v>
-      </c>
-      <c r="E29">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="F29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="E30">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="F30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="15" customFormat="1">
-      <c r="A31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="17">
-        <v>1</v>
-      </c>
-      <c r="C31" s="17">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F31" s="15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="E32">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0.995</v>
-      </c>
-      <c r="E33">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.95575171652755997</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0.95433920908354097</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0.98540000000000005</v>
-      </c>
-      <c r="E35">
-        <v>1.99999999999999E-2</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.69905649988283802</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0.81611527619122903</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0.84279999999999999</v>
-      </c>
-      <c r="E36">
-        <v>1.4999999999999901E-2</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.42221226502810399</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.58423649873571004</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="E37">
-        <v>1.16999999999999E-2</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.43337358560270201</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0.55099679585649797</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0.6946</v>
-      </c>
-      <c r="E38">
-        <v>1.04999999999999E-2</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="8">
-        <f>AVERAGE(B24:B37)</f>
-        <v>0.88571574867417879</v>
-      </c>
-      <c r="C39" s="8">
-        <f>AVERAGE(C24:C37)</f>
-        <v>0.88983507028646291</v>
-      </c>
-      <c r="D39" s="8">
-        <f>AVERAGE(D24:D37)</f>
-        <v>0.94629999999999992</v>
-      </c>
-      <c r="E39" s="7"/>
+      <c r="B95">
+        <f>AVERAGE(B79:B90)</f>
+        <v>0.9670875349740472</v>
+      </c>
+      <c r="C95">
+        <f>AVERAGE(C79:C90)</f>
+        <v>0.95932604238857555</v>
+      </c>
+      <c r="D95">
+        <f>AVERAGE(D79:D90)</f>
+        <v>0.98543838216286062</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A77:E77"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I53:N53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4788,7 +6402,370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C51E941-567F-4BB0-B351-95C85CFDE650}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="20">
+        <v>150</v>
+      </c>
+      <c r="C2" s="20">
+        <v>4</v>
+      </c>
+      <c r="D2" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="20">
+        <v>240</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="20">
+        <v>312</v>
+      </c>
+      <c r="C4" s="20">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="20">
+        <v>312</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="20">
+        <v>373</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20">
+        <v>399</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="20">
+        <v>600</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="20">
+        <v>788</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2048</v>
+      </c>
+      <c r="C10" s="20">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="20">
+        <v>2048</v>
+      </c>
+      <c r="C11" s="20">
+        <v>4</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="20">
+        <v>3100</v>
+      </c>
+      <c r="C12" s="20">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="20">
+        <v>6500</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="21">
+        <v>14980</v>
+      </c>
+      <c r="C14" s="21">
+        <v>14</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="21">
+        <v>20000</v>
+      </c>
+      <c r="C15" s="21">
+        <v>16</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="21">
+        <v>29928</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="20">
+        <v>100000</v>
+      </c>
+      <c r="C17" s="20">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="20">
+        <v>100000</v>
+      </c>
+      <c r="C18" s="20">
+        <v>10</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="20">
+        <v>105000</v>
+      </c>
+      <c r="C19" s="20">
+        <v>64</v>
+      </c>
+      <c r="D19" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="20">
+        <v>105600</v>
+      </c>
+      <c r="C20" s="20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="20">
+        <v>105600</v>
+      </c>
+      <c r="C21" s="20">
+        <v>2</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="20">
+        <v>145751</v>
+      </c>
+      <c r="C22" s="20">
+        <v>74</v>
+      </c>
+      <c r="D22" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="20">
+        <v>360177</v>
+      </c>
+      <c r="C23" s="20">
+        <v>2</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="20">
+        <v>434874</v>
+      </c>
+      <c r="C24" s="20">
+        <v>4</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="20">
+        <v>2219803</v>
+      </c>
+      <c r="C25" s="20">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+    <sortCondition ref="B2:B26"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE08D89-CCFE-42FE-BB29-871C39818D87}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
@@ -4796,240 +6773,230 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4">
-        <v>788</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4">
-        <v>399</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3100</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4">
-        <v>240</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2048</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2048</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4">
-        <v>150</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4">
-        <v>373</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4">
-        <v>312</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4">
-        <v>600</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4">
-        <v>312</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100000</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="4">
-        <v>105600</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21">
-        <v>105000</v>
-      </c>
-      <c r="C21">
-        <v>64</v>
-      </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22">
-        <v>145751</v>
-      </c>
-      <c r="C22">
-        <v>74</v>
-      </c>
-      <c r="D22">
-        <v>2000</v>
-      </c>
+    <row r="1" spans="1:6">
+      <c r="A1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.13482984000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.19991990000000001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.9590833000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13">
+        <v>0.51995190000000002</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.16155167000000001</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.51995100000000005</v>
+      </c>
+      <c r="D5" s="13">
+        <v>53.918329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
+        <v>0.75997599699999996</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.30633120000000003</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.75997590000000004</v>
+      </c>
+      <c r="D6" s="13">
+        <v>190.25333499999999</v>
+      </c>
+      <c r="E6">
+        <v>0.72461500000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.53466000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13">
+        <v>0.91999189999999997</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.91930016999999997</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.91999199909999996</v>
+      </c>
+      <c r="D7" s="13">
+        <v>273.27443849999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1.412244013</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>420.29173520000001</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13">
+        <v>9.9981999599999996E-2</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.78966295200000003</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13">
+        <v>0.57999159</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2.7216076999999999</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13">
+        <v>0.87999700000000003</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2.6875017099999998</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13">
+        <v>0.97999959989999996</v>
+      </c>
+      <c r="B18" s="13">
+        <v>14.818225200000001</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13">
+        <v>33.423893300000003</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DD4765-48D9-40A2-A501-6BE4DD225A87}">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -5040,193 +7007,193 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="A1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5239,7 +7206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE04413-D671-47C6-A598-FEF3D81BAFB0}">
   <dimension ref="A2:AL51"/>
   <sheetViews>
@@ -5260,33 +7227,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38">
-      <c r="B2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="M2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
+      <c r="B2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="M2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="1"/>
-      <c r="B3" s="21">
+      <c r="B3" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="25"/>
       <c r="D3">
         <v>0.01</v>
       </c>
@@ -5299,10 +7266,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="21">
+      <c r="M3" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="25"/>
       <c r="O3">
         <v>0.01</v>
       </c>
@@ -5317,58 +7284,58 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -5388,7 +7355,7 @@
         <v>380872</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>380880</v>
@@ -5432,7 +7399,7 @@
         <v>380872</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>50</v>
@@ -5473,7 +7440,7 @@
         <v>380872</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -5532,137 +7499,137 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="L11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
+      <c r="A11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="1"/>
-      <c r="B12" s="21">
+      <c r="B12" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="25"/>
       <c r="D12">
         <v>0.01</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="22">
         <v>0.05</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22">
         <v>0.1</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="22"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="21">
+      <c r="M12" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="25"/>
       <c r="O12">
         <v>0.01</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="22">
         <v>0.05</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18">
+      <c r="R12" s="22"/>
+      <c r="S12" s="22">
         <v>0.1</v>
       </c>
-      <c r="T12" s="18"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="O13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="18" t="s">
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
     </row>
     <row r="14" spans="1:38" ht="16.5">
       <c r="A14">
@@ -5675,7 +7642,7 @@
         <v>440668</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>440672</v>
@@ -5704,36 +7671,36 @@
       <c r="R14">
         <v>245120</v>
       </c>
-      <c r="AB14" s="18"/>
+      <c r="AB14" s="22"/>
       <c r="AC14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AD14" s="11" t="s">
+      <c r="AF14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AE14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="AG14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AH14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI14" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="AJ14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL14" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="AK14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL14" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -5767,8 +7734,8 @@
       <c r="R15">
         <v>247164</v>
       </c>
-      <c r="AB15" s="18" t="s">
-        <v>39</v>
+      <c r="AB15" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="AC15" s="4">
         <v>5</v>
@@ -5779,21 +7746,21 @@
       <c r="AE15" s="12">
         <v>1480.6320000000001</v>
       </c>
-      <c r="AF15" s="18" t="s">
-        <v>56</v>
+      <c r="AF15" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="AG15" s="13">
         <v>845.00800000000004</v>
       </c>
-      <c r="AH15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
+      <c r="AH15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
     </row>
     <row r="16" spans="1:38">
       <c r="A16">
@@ -5826,7 +7793,7 @@
       <c r="R16">
         <v>249428</v>
       </c>
-      <c r="AB16" s="18"/>
+      <c r="AB16" s="22"/>
       <c r="AC16" s="4">
         <v>50</v>
       </c>
@@ -5836,15 +7803,15 @@
       <c r="AE16" s="12">
         <v>880.77099999999996</v>
       </c>
-      <c r="AF16" s="18"/>
+      <c r="AF16" s="22"/>
       <c r="AG16" s="13">
         <v>865.52700000000004</v>
       </c>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
     </row>
     <row r="17" spans="1:38">
       <c r="C17">
@@ -5875,7 +7842,7 @@
         <f>AVERAGE(R14:R16)/1024</f>
         <v>241.44270833333334</v>
       </c>
-      <c r="AB17" s="18"/>
+      <c r="AB17" s="22"/>
       <c r="AC17" s="4">
         <v>100</v>
       </c>
@@ -5885,22 +7852,22 @@
       <c r="AE17" s="12">
         <v>661.39</v>
       </c>
-      <c r="AF17" s="18"/>
+      <c r="AF17" s="22"/>
       <c r="AG17" s="13">
         <v>834.37199999999996</v>
       </c>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
     </row>
     <row r="18" spans="1:38">
       <c r="AB18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD18" s="4">
         <v>1.67</v>
@@ -5931,117 +7898,117 @@
       </c>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="L24" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
+      <c r="A24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="L24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="1"/>
-      <c r="B25" s="21">
+      <c r="B25" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="25"/>
       <c r="D25">
         <v>0.01</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="22">
         <v>0.05</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18">
+      <c r="G25" s="22"/>
+      <c r="H25" s="22">
         <v>0.1</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="22"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="21">
+      <c r="M25" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N25" s="21"/>
+      <c r="N25" s="25"/>
       <c r="O25">
         <v>0.01</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="22">
         <v>0.05</v>
       </c>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18">
+      <c r="R25" s="22"/>
+      <c r="S25" s="22">
         <v>0.1</v>
       </c>
-      <c r="T25" s="18"/>
+      <c r="T25" s="22"/>
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="O26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:38">
@@ -6049,7 +8016,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>482196</v>
@@ -6160,24 +8127,24 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="13">
         <v>1.6759999999999999</v>
@@ -6185,7 +8152,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="13">
         <v>356.57100000000003</v>
@@ -6193,7 +8160,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="13">
         <v>153.19399999999999</v>
@@ -6201,7 +8168,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" s="13">
         <v>108.919</v>
@@ -6209,7 +8176,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="H40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I40">
         <v>5.0000000000000001E-3</v>
@@ -6221,7 +8188,7 @@
         <v>0.05</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P40">
         <v>5.0000000000000001E-3</v>
@@ -6235,7 +8202,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="H41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I41">
         <v>1.6759999999999999</v>
@@ -6247,7 +8214,7 @@
         <v>1.468</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P41">
         <v>235</v>
@@ -6261,7 +8228,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="H42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I42">
         <v>5.1189999999999998</v>
@@ -6273,7 +8240,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P42">
         <v>272</v>
@@ -6287,7 +8254,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="H43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I43">
         <v>5.4050000000000002</v>
@@ -6299,7 +8266,7 @@
         <v>5.2750000000000004</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P43">
         <v>233</v>
@@ -6313,21 +8280,21 @@
     </row>
     <row r="47" spans="1:19">
       <c r="Q47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="P48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R48" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="S48" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="15:19">

--- a/RESULT.xlsx
+++ b/RESULT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\doors\Code\GTCLU\gtclu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540E0D78-A8F2-49D7-A904-16F7A5AF1D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F077742-1F50-4C4D-B301-B347DA2DBE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8310" windowWidth="16440" windowHeight="28320" xr2:uid="{4F7C4B3E-96C8-491D-87E0-B7A086813C9A}"/>
+    <workbookView xWindow="-16320" yWindow="-8310" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{4F7C4B3E-96C8-491D-87E0-B7A086813C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="quality" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="140">
   <si>
     <t>purity</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -533,21 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ari</t>
-  </si>
-  <si>
-    <t>ami</t>
-  </si>
-  <si>
-    <t>purity</t>
-  </si>
-  <si>
-    <t>intervals</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Aggregation</t>
   </si>
   <si>
@@ -579,18 +564,84 @@
   </si>
   <si>
     <t>letter</t>
+  </si>
+  <si>
+    <t>10k-20d-10c （m=5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100k-3d-10c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbscan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10k-3d-10c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C language speed up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50k-20d-10c (m=5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50k-10d-10c(m=5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500k-30d-10c (m=5) -gtclu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build-tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build-grids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster-leaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree-merging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30k-3d-10c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +683,15 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +728,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -685,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,6 +816,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,25 +852,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3703,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF86EB3-EC57-4520-A5AB-13ECC4A94637}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3712,7 +3782,7 @@
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.75" bestFit="1" customWidth="1"/>
@@ -3721,20 +3791,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="I1" s="22" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
@@ -3781,7 +3851,7 @@
       <c r="D3">
         <v>0.99873096446700504</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="25">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F3">
@@ -3819,7 +3889,7 @@
       <c r="D4">
         <v>0.98492462311557705</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="25">
         <v>7.8E-2</v>
       </c>
       <c r="F4">
@@ -3857,7 +3927,7 @@
       <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <v>0.05</v>
       </c>
       <c r="F5">
@@ -3895,7 +3965,7 @@
       <c r="D6">
         <v>0.99583333333333302</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="25">
         <v>0.11</v>
       </c>
       <c r="F6">
@@ -3933,7 +4003,7 @@
       <c r="D7">
         <v>0.986328125</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="25">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F7">
@@ -3971,7 +4041,7 @@
       <c r="D8">
         <v>0.9990234375</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="25">
         <v>0.17899999999999999</v>
       </c>
       <c r="F8">
@@ -4009,7 +4079,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="25">
         <v>0.35</v>
       </c>
       <c r="F9">
@@ -4047,7 +4117,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="25">
         <v>0.4</v>
       </c>
       <c r="F10">
@@ -4085,11 +4155,11 @@
       <c r="D11" s="18">
         <v>1</v>
       </c>
-      <c r="E11" s="18">
-        <v>0.05</v>
+      <c r="E11" s="26">
+        <v>0.06</v>
       </c>
       <c r="F11" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>10</v>
@@ -4123,7 +4193,7 @@
       <c r="D12">
         <v>0.98333333333333295</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="25">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12">
@@ -4161,7 +4231,7 @@
       <c r="D13" s="18">
         <v>0.99333333329999995</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="26">
         <v>2.7E-2</v>
       </c>
       <c r="F13" s="18">
@@ -4199,11 +4269,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>3.9E-2</v>
+      <c r="E14" s="24">
+        <v>0.09</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
@@ -4237,7 +4307,7 @@
       <c r="D15">
         <v>0.98640000000000005</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="25">
         <v>0.05</v>
       </c>
       <c r="F15">
@@ -4275,7 +4345,7 @@
       <c r="D16">
         <v>0.8196</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="25">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="F16">
@@ -4313,7 +4383,7 @@
       <c r="D17">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="25">
         <v>1.2E-2</v>
       </c>
       <c r="F17">
@@ -4351,7 +4421,7 @@
       <c r="D18">
         <v>0.7974</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="25">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F18">
@@ -4389,7 +4459,7 @@
       <c r="D19">
         <v>0.999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="25">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F19">
@@ -4427,7 +4497,7 @@
       <c r="D20">
         <v>0.99923076923076903</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="25">
         <v>0.126</v>
       </c>
       <c r="F20">
@@ -4465,7 +4535,7 @@
       <c r="D21">
         <v>0.67025000000000001</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="25">
         <v>0.23499999999999999</v>
       </c>
       <c r="F21">
@@ -4523,22 +4593,22 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="I26" s="22" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="I26" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
@@ -4609,7 +4679,7 @@
       <c r="L28" s="5">
         <v>0.98857868020304496</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="22">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="N28">
@@ -4647,7 +4717,7 @@
       <c r="L29" s="5">
         <v>0.93969849246231096</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="22">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="N29">
@@ -4685,7 +4755,7 @@
       <c r="L30" s="5">
         <v>0.86322580645161295</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="22">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="N30">
@@ -4723,7 +4793,7 @@
       <c r="L31" s="5">
         <v>0.99583333333333302</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="22">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="N31">
@@ -4761,7 +4831,7 @@
       <c r="L32" s="5">
         <v>0.978515625</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="22">
         <v>6.3E-2</v>
       </c>
       <c r="N32">
@@ -4799,7 +4869,7 @@
       <c r="L33" s="5">
         <v>0.99853515625</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="22">
         <v>0.17199999999999999</v>
       </c>
       <c r="N33">
@@ -4837,7 +4907,7 @@
       <c r="L34" s="5">
         <v>0.96240234375</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="22">
         <v>0.19900000000000001</v>
       </c>
       <c r="N34">
@@ -4875,7 +4945,7 @@
       <c r="L35" s="5">
         <v>0.99333333333333296</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="22">
         <v>0.19900000000000001</v>
       </c>
       <c r="N35">
@@ -4913,7 +4983,7 @@
       <c r="L36" s="19">
         <v>0.99463806970509305</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="23">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="N36" s="18">
@@ -4951,7 +5021,7 @@
       <c r="L37" s="5">
         <v>0.98333333333333295</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="22">
         <v>0.123</v>
       </c>
       <c r="N37">
@@ -4989,7 +5059,7 @@
       <c r="L38" s="19">
         <v>0.98833333333333295</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="23">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="N38" s="18">
@@ -5027,7 +5097,7 @@
       <c r="L39" s="5">
         <v>1</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="22">
         <v>3.9E-2</v>
       </c>
       <c r="N39">
@@ -5065,7 +5135,7 @@
       <c r="L40" s="5">
         <v>0.98360000000000003</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="22">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="N40">
@@ -5103,7 +5173,7 @@
       <c r="L41" s="5">
         <v>0.82899999999999996</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="22">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="N41">
@@ -5141,7 +5211,7 @@
       <c r="L42" s="5">
         <v>0.58479999999999999</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="22">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="N42">
@@ -5179,7 +5249,7 @@
       <c r="L43" s="5">
         <v>0.7298</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="22">
         <v>0.01</v>
       </c>
       <c r="N43">
@@ -5217,7 +5287,7 @@
       <c r="L44" s="5">
         <v>0.995</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="22">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="N44">
@@ -5255,7 +5325,7 @@
       <c r="L45" s="5">
         <v>0.99861538461538402</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="22">
         <v>0.05</v>
       </c>
       <c r="N45">
@@ -5293,7 +5363,7 @@
       <c r="L46" s="5">
         <v>0.55354999999999999</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="22">
         <v>0.16400000000000001</v>
       </c>
       <c r="N46">
@@ -5335,22 +5405,22 @@
       <c r="M47" s="7"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="I53" s="22" t="s">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="I53" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
     </row>
     <row r="54" spans="1:14">
       <c r="B54" s="1" t="s">
@@ -5398,21 +5468,23 @@
       <c r="E55" s="2">
         <v>11</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="27" t="s">
+      <c r="I55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K55" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>117</v>
+      <c r="J55">
+        <v>0.97150336940493298</v>
+      </c>
+      <c r="K55">
+        <v>0.95744261438547396</v>
+      </c>
+      <c r="L55">
+        <v>0.99492385786801996</v>
+      </c>
+      <c r="M55" s="2">
+        <v>37</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5431,22 +5503,22 @@
       <c r="E56" s="2">
         <v>11</v>
       </c>
-      <c r="I56" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="J56" s="26">
-        <v>0.97150336940493298</v>
-      </c>
-      <c r="K56" s="26">
-        <v>0.95744261438547396</v>
-      </c>
-      <c r="L56" s="26">
-        <v>0.99492385786801996</v>
-      </c>
-      <c r="M56" s="28">
-        <v>37</v>
-      </c>
-      <c r="N56" s="26">
+      <c r="I56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>0.92299913863670502</v>
+      </c>
+      <c r="K56">
+        <v>0.78654730601296197</v>
+      </c>
+      <c r="L56">
+        <v>0.99497487437185905</v>
+      </c>
+      <c r="M56" s="2">
+        <v>23</v>
+      </c>
+      <c r="N56">
         <v>0</v>
       </c>
     </row>
@@ -5466,22 +5538,22 @@
       <c r="E57" s="2">
         <v>14</v>
       </c>
-      <c r="I57" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="26">
-        <v>0.92299913863670502</v>
-      </c>
-      <c r="K57" s="26">
-        <v>0.78654730601296197</v>
-      </c>
-      <c r="L57" s="26">
-        <v>0.99497487437185905</v>
-      </c>
-      <c r="M57" s="28">
-        <v>23</v>
-      </c>
-      <c r="N57" s="26">
+      <c r="I57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57">
+        <v>0.64322246058663901</v>
+      </c>
+      <c r="K57">
+        <v>0.85824696188370098</v>
+      </c>
+      <c r="L57">
+        <v>0.71096774193548296</v>
+      </c>
+      <c r="M57" s="2">
+        <v>48</v>
+      </c>
+      <c r="N57">
         <v>0</v>
       </c>
     </row>
@@ -5501,22 +5573,22 @@
       <c r="E58" s="2">
         <v>10</v>
       </c>
-      <c r="I58" s="27" t="s">
+      <c r="I58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <v>0.86505680835324905</v>
+      </c>
+      <c r="K58">
+        <v>0.73072555421170904</v>
+      </c>
+      <c r="L58">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="M58" s="2">
         <v>21</v>
       </c>
-      <c r="J58" s="26">
-        <v>0.64322246058663901</v>
-      </c>
-      <c r="K58" s="26">
-        <v>0.85824696188370098</v>
-      </c>
-      <c r="L58" s="26">
-        <v>0.71096774193548296</v>
-      </c>
-      <c r="M58" s="28">
-        <v>48</v>
-      </c>
-      <c r="N58" s="26">
+      <c r="N58">
         <v>0</v>
       </c>
     </row>
@@ -5536,22 +5608,22 @@
       <c r="E59" s="2">
         <v>14</v>
       </c>
-      <c r="I59" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" s="26">
-        <v>0.86505680835324905</v>
-      </c>
-      <c r="K59" s="26">
-        <v>0.73072555421170904</v>
-      </c>
-      <c r="L59" s="26">
-        <v>0.98333333333333295</v>
-      </c>
-      <c r="M59" s="28">
-        <v>21</v>
-      </c>
-      <c r="N59" s="26">
+      <c r="I59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J59">
+        <v>0.85625254022409003</v>
+      </c>
+      <c r="K59">
+        <v>0.70439773176820697</v>
+      </c>
+      <c r="L59">
+        <v>0.9921875</v>
+      </c>
+      <c r="M59" s="2">
+        <v>50</v>
+      </c>
+      <c r="N59">
         <v>0</v>
       </c>
     </row>
@@ -5571,23 +5643,23 @@
       <c r="E60" s="2">
         <v>19</v>
       </c>
-      <c r="I60" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="J60" s="26">
-        <v>0.85625254022409003</v>
-      </c>
-      <c r="K60" s="26">
-        <v>0.70439773176820697</v>
-      </c>
-      <c r="L60" s="26">
-        <v>0.9921875</v>
-      </c>
-      <c r="M60" s="28">
-        <v>50</v>
-      </c>
-      <c r="N60" s="26">
-        <v>0</v>
+      <c r="I60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60">
+        <v>0.96813792823407796</v>
+      </c>
+      <c r="K60">
+        <v>0.93537950112183599</v>
+      </c>
+      <c r="L60">
+        <v>0.9951171875</v>
+      </c>
+      <c r="M60" s="2">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5606,23 +5678,23 @@
       <c r="E61" s="2">
         <v>25</v>
       </c>
-      <c r="I61" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J61" s="26">
-        <v>0.96813792823407796</v>
-      </c>
-      <c r="K61" s="26">
-        <v>0.93537950112183599</v>
-      </c>
-      <c r="L61" s="26">
-        <v>0.9951171875</v>
-      </c>
-      <c r="M61" s="28">
+      <c r="I61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J61">
+        <v>0.97864611658456102</v>
+      </c>
+      <c r="K61">
+        <v>0.95406670650027903</v>
+      </c>
+      <c r="L61">
+        <v>0.99609375</v>
+      </c>
+      <c r="M61" s="2">
         <v>2</v>
       </c>
-      <c r="N61" s="26">
-        <v>9</v>
+      <c r="N61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -5641,14 +5713,24 @@
       <c r="E62" s="2">
         <v>11</v>
       </c>
-      <c r="I62" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="26"/>
+      <c r="I62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="17" t="s">
@@ -5667,22 +5749,22 @@
         <v>11</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="I63" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="26">
-        <v>1</v>
-      </c>
-      <c r="K63" s="26">
-        <v>1</v>
-      </c>
-      <c r="L63" s="26">
-        <v>1</v>
-      </c>
-      <c r="M63" s="28">
-        <v>3</v>
-      </c>
-      <c r="N63" s="26">
+      <c r="I63" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J63" s="15">
+        <v>0.99708242416665105</v>
+      </c>
+      <c r="K63" s="15">
+        <v>0.98707628166359496</v>
+      </c>
+      <c r="L63" s="15">
+        <v>1</v>
+      </c>
+      <c r="M63" s="16">
+        <v>14</v>
+      </c>
+      <c r="N63" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5702,22 +5784,22 @@
       <c r="E64" s="2">
         <v>11</v>
       </c>
-      <c r="I64" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J64" s="30">
-        <v>0.99708242416665105</v>
-      </c>
-      <c r="K64" s="30">
-        <v>0.98707628166359496</v>
-      </c>
-      <c r="L64" s="30">
-        <v>1</v>
-      </c>
-      <c r="M64" s="31">
-        <v>14</v>
-      </c>
-      <c r="N64" s="30">
+      <c r="I64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64">
+        <v>0.67464346712172296</v>
+      </c>
+      <c r="K64">
+        <v>0.67293050749263195</v>
+      </c>
+      <c r="L64">
+        <v>0.99</v>
+      </c>
+      <c r="M64" s="2">
+        <v>22</v>
+      </c>
+      <c r="N64">
         <v>0</v>
       </c>
     </row>
@@ -5737,23 +5819,23 @@
       <c r="E65" s="2">
         <v>13</v>
       </c>
-      <c r="I65" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="J65" s="26">
-        <v>0.67464346712172296</v>
-      </c>
-      <c r="K65" s="26">
-        <v>0.67293050749263195</v>
-      </c>
-      <c r="L65" s="26">
-        <v>0.99</v>
-      </c>
-      <c r="M65" s="28">
-        <v>22</v>
-      </c>
-      <c r="N65" s="26">
-        <v>0</v>
+      <c r="I65" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65">
+        <v>0.81691485435766098</v>
+      </c>
+      <c r="K65">
+        <v>0.88795388766495498</v>
+      </c>
+      <c r="L65">
+        <v>0.87</v>
+      </c>
+      <c r="M65" s="2">
+        <v>24</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -5772,23 +5854,23 @@
       <c r="E66" s="2">
         <v>10</v>
       </c>
-      <c r="I66" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" s="26">
-        <v>0.81691485435766098</v>
-      </c>
-      <c r="K66" s="26">
-        <v>0.88795388766495498</v>
-      </c>
-      <c r="L66" s="26">
-        <v>0.87</v>
-      </c>
-      <c r="M66" s="28">
-        <v>24</v>
-      </c>
-      <c r="N66" s="26">
-        <v>2</v>
+      <c r="I66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66">
+        <v>0.62914653806141196</v>
+      </c>
+      <c r="K66">
+        <v>0.72545633265926301</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>17</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -5807,23 +5889,23 @@
       <c r="E67" s="2">
         <v>15</v>
       </c>
-      <c r="I67" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J67" s="26">
-        <v>0.62914653806141196</v>
-      </c>
-      <c r="K67" s="26">
-        <v>0.72545633265926301</v>
-      </c>
-      <c r="L67" s="26">
-        <v>1</v>
-      </c>
-      <c r="M67" s="28">
-        <v>17</v>
-      </c>
-      <c r="N67" s="26">
-        <v>0</v>
+      <c r="I67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J67">
+        <v>0.89100461147555698</v>
+      </c>
+      <c r="K67">
+        <v>0.91655056795585399</v>
+      </c>
+      <c r="L67">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="M67" s="2">
+        <v>36</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5842,22 +5924,22 @@
       <c r="E68" s="2">
         <v>15</v>
       </c>
-      <c r="I68" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="J68" s="26">
-        <v>0.89100461147555698</v>
-      </c>
-      <c r="K68" s="26">
-        <v>0.91655056795585399</v>
-      </c>
-      <c r="L68" s="26">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="M68" s="28">
-        <v>36</v>
-      </c>
-      <c r="N68" s="26">
+      <c r="I68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J68">
+        <v>0.626100471988837</v>
+      </c>
+      <c r="K68">
+        <v>0.79669082798715796</v>
+      </c>
+      <c r="L68">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="M68" s="2">
+        <v>40</v>
+      </c>
+      <c r="N68">
         <v>2</v>
       </c>
     </row>
@@ -5877,23 +5959,23 @@
       <c r="E69" s="2">
         <v>16</v>
       </c>
-      <c r="I69" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="J69" s="26">
-        <v>0.626100471988837</v>
-      </c>
-      <c r="K69" s="26">
-        <v>0.79669082798715796</v>
-      </c>
-      <c r="L69" s="26">
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="M69" s="28">
-        <v>40</v>
-      </c>
-      <c r="N69" s="26">
-        <v>2</v>
+      <c r="I69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J69">
+        <v>0.287202415394539</v>
+      </c>
+      <c r="K69">
+        <v>0.56711316433660497</v>
+      </c>
+      <c r="L69">
+        <v>0.4748</v>
+      </c>
+      <c r="M69" s="2">
+        <v>35</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5912,22 +5994,22 @@
       <c r="E70" s="2">
         <v>16</v>
       </c>
-      <c r="I70" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J70" s="26">
-        <v>0.287202415394539</v>
-      </c>
-      <c r="K70" s="26">
-        <v>0.56711316433660497</v>
-      </c>
-      <c r="L70" s="26">
-        <v>0.4748</v>
-      </c>
-      <c r="M70" s="28">
-        <v>35</v>
-      </c>
-      <c r="N70" s="26">
+      <c r="I70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J70">
+        <v>0.18528627480561399</v>
+      </c>
+      <c r="K70">
+        <v>0.47186616909100298</v>
+      </c>
+      <c r="L70">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M70" s="2">
+        <v>39</v>
+      </c>
+      <c r="N70">
         <v>5</v>
       </c>
     </row>
@@ -5947,23 +6029,23 @@
       <c r="E71">
         <v>13</v>
       </c>
-      <c r="I71" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J71" s="26">
-        <v>0.18528627480561399</v>
-      </c>
-      <c r="K71" s="26">
-        <v>0.47186616909100298</v>
-      </c>
-      <c r="L71" s="26">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="M71" s="28">
-        <v>39</v>
-      </c>
-      <c r="N71" s="26">
-        <v>5</v>
+      <c r="I71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J71">
+        <v>0.97946359752008805</v>
+      </c>
+      <c r="K71">
+        <v>0.97240780386456604</v>
+      </c>
+      <c r="L71">
+        <v>0.999</v>
+      </c>
+      <c r="M71">
+        <v>32</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -5982,22 +6064,22 @@
       <c r="E72">
         <v>12</v>
       </c>
-      <c r="I72" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="J72" s="26">
-        <v>0.97946359752008805</v>
-      </c>
-      <c r="K72" s="26">
-        <v>0.97240780386456604</v>
-      </c>
-      <c r="L72" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="M72" s="26">
-        <v>32</v>
-      </c>
-      <c r="N72" s="26">
+      <c r="I72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72">
+        <v>0.999424828458087</v>
+      </c>
+      <c r="K72">
+        <v>0.99073008975336996</v>
+      </c>
+      <c r="L72">
+        <v>0.99938461538461498</v>
+      </c>
+      <c r="M72">
+        <v>27</v>
+      </c>
+      <c r="N72">
         <v>0</v>
       </c>
     </row>
@@ -6017,23 +6099,20 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="I73" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J73" s="26">
-        <v>0.999424828458087</v>
-      </c>
-      <c r="K73" s="26">
-        <v>0.99073008975336996</v>
-      </c>
-      <c r="L73" s="26">
-        <v>0.99938461538461498</v>
-      </c>
-      <c r="M73" s="26">
-        <v>27</v>
-      </c>
-      <c r="N73" s="26">
+      <c r="I73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J73">
         <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>4.0649999999999999E-2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -6050,22 +6129,7 @@
         <f t="shared" si="4"/>
         <v>0.90796341331016672</v>
       </c>
-      <c r="I74" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="J74" s="26">
-        <v>0</v>
-      </c>
-      <c r="K74" s="26">
-        <v>0</v>
-      </c>
-      <c r="L74" s="26">
-        <v>4.0649999999999999E-2</v>
-      </c>
-      <c r="M74" s="26">
-        <v>1</v>
-      </c>
-      <c r="N74" s="26"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1"/>
@@ -6074,13 +6138,13 @@
       <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
     </row>
     <row r="78" spans="1:14">
       <c r="B78" s="1" t="s">
@@ -6765,10 +6829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE08D89-CCFE-42FE-BB29-871C39818D87}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6779,26 +6843,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -6900,22 +6964,22 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -6951,7 +7015,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" s="13">
         <v>0.87999700000000003</v>
       </c>
@@ -6961,7 +7025,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="13">
         <v>0.97999959989999996</v>
       </c>
@@ -6971,7 +7035,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="13">
         <v>1</v>
       </c>
@@ -6981,8 +7045,1287 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="13">
+        <v>4.7386515559992404</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3.2513222210000001</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1.27735909200055</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>190.25333499999999</v>
+      </c>
+      <c r="E33">
+        <v>0.72461500000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.53466000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.33649848299864898</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="13">
+        <v>273.27443849999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.15242972200030599</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="13">
+        <v>420.29173520000001</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>1.75</v>
+      </c>
+      <c r="B36">
+        <v>0.15584454400050099</v>
+      </c>
+      <c r="C36">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0.15558823399987801</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="F49" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>0.02</v>
+      </c>
+      <c r="B51">
+        <v>5.1904000000000003</v>
+      </c>
+      <c r="C51">
+        <v>546.99724000000003</v>
+      </c>
+      <c r="D51">
+        <v>6.5534999999999997</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+      <c r="G51">
+        <v>206.73779999999999</v>
+      </c>
+      <c r="H51">
+        <v>22.863</v>
+      </c>
+      <c r="I51">
+        <v>0.61409999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>0.04</v>
+      </c>
+      <c r="B52">
+        <v>22.922000000000001</v>
+      </c>
+      <c r="C52">
+        <v>1187.875</v>
+      </c>
+      <c r="D52">
+        <v>2.7004999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.2</v>
+      </c>
+      <c r="G52">
+        <v>562.27610000000004</v>
+      </c>
+      <c r="H52">
+        <v>49.4</v>
+      </c>
+      <c r="I52">
+        <v>0.53359999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>0.06</v>
+      </c>
+      <c r="B53">
+        <v>38.631</v>
+      </c>
+      <c r="C53">
+        <v>3069.1046000000001</v>
+      </c>
+      <c r="D53">
+        <v>1.9811099999999999</v>
+      </c>
+      <c r="F53">
+        <v>0.3</v>
+      </c>
+      <c r="G53">
+        <v>967.27700000000004</v>
+      </c>
+      <c r="H53">
+        <v>132.072</v>
+      </c>
+      <c r="I53">
+        <v>0.51529999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>0.08</v>
+      </c>
+      <c r="B54">
+        <v>64.427999999999997</v>
+      </c>
+      <c r="C54">
+        <v>14.702999999999999</v>
+      </c>
+      <c r="D54">
+        <v>1.8442000000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.4</v>
+      </c>
+      <c r="G54">
+        <v>1757.8857</v>
+      </c>
+      <c r="H54">
+        <v>338.71190000000001</v>
+      </c>
+      <c r="I54">
+        <v>0.52590000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>0.1</v>
+      </c>
+      <c r="B55">
+        <v>101.33799999999999</v>
+      </c>
+      <c r="C55">
+        <v>25.632999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1.7703</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>3833.3809999999999</v>
+      </c>
+      <c r="H55">
+        <v>512.50620000000004</v>
+      </c>
+      <c r="I55">
+        <v>0.51249999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>0.12</v>
+      </c>
+      <c r="B56">
+        <v>135.94399999999999</v>
+      </c>
+      <c r="C56">
+        <v>32.496000000000002</v>
+      </c>
+      <c r="D56">
+        <v>1.76</v>
+      </c>
+      <c r="F56">
+        <v>0.6</v>
+      </c>
+      <c r="G56">
+        <v>4646.4639999999999</v>
+      </c>
+      <c r="H56">
+        <v>598.74609999999996</v>
+      </c>
+      <c r="I56">
+        <v>0.52410000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B57">
+        <v>163.45189999999999</v>
+      </c>
+      <c r="C57">
+        <v>38.512</v>
+      </c>
+      <c r="D57">
+        <v>1.7595000000000001</v>
+      </c>
+      <c r="F57">
+        <v>0.7</v>
+      </c>
+      <c r="G57">
+        <v>5576.3189000000002</v>
+      </c>
+      <c r="H57">
+        <v>629.95699999999999</v>
+      </c>
+      <c r="I57">
+        <v>0.52129999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>0.16</v>
+      </c>
+      <c r="B58">
+        <v>203.79599999999999</v>
+      </c>
+      <c r="C58">
+        <v>45.201000000000001</v>
+      </c>
+      <c r="D58">
+        <v>1.7171000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.8</v>
+      </c>
+      <c r="G58">
+        <v>5957.6890000000003</v>
+      </c>
+      <c r="H58">
+        <v>661.47730000000001</v>
+      </c>
+      <c r="I58">
+        <v>0.51939999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>0.18</v>
+      </c>
+      <c r="B59">
+        <v>221.29499999999999</v>
+      </c>
+      <c r="C59">
+        <v>48.537999999999997</v>
+      </c>
+      <c r="D59">
+        <v>1.75125</v>
+      </c>
+      <c r="F59">
+        <v>0.9</v>
+      </c>
+      <c r="G59">
+        <v>5957.6890999999996</v>
+      </c>
+      <c r="H59">
+        <v>677.10149999999999</v>
+      </c>
+      <c r="I59">
+        <v>0.50980000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>0.2</v>
+      </c>
+      <c r="B60">
+        <v>230.86199999999999</v>
+      </c>
+      <c r="C60">
+        <v>51.17</v>
+      </c>
+      <c r="D60">
+        <v>1.752</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>6147.3807999999999</v>
+      </c>
+      <c r="H60">
+        <v>685.56790000000001</v>
+      </c>
+      <c r="I60">
+        <v>0.51749999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="B66" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="F66" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="K66" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L67" t="s">
+        <v>125</v>
+      </c>
+      <c r="M67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>0.1</v>
+      </c>
+      <c r="B68">
+        <v>5.1904000000000003</v>
+      </c>
+      <c r="C68">
+        <v>546.99724000000003</v>
+      </c>
+      <c r="D68">
+        <v>1.86219</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
+      </c>
+      <c r="G68">
+        <v>5.1904000000000003</v>
+      </c>
+      <c r="H68">
+        <v>1.885</v>
+      </c>
+      <c r="I68">
+        <v>0.223</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="M68">
+        <v>1.71956</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>0.2</v>
+      </c>
+      <c r="B69">
+        <v>22.922000000000001</v>
+      </c>
+      <c r="C69">
+        <v>1187.875</v>
+      </c>
+      <c r="D69">
+        <v>1.7451000000000001</v>
+      </c>
+      <c r="F69">
+        <v>0.2</v>
+      </c>
+      <c r="G69">
+        <v>22.922000000000001</v>
+      </c>
+      <c r="H69">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="I69">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>2.408795</v>
+      </c>
+      <c r="M69">
+        <v>1.7295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>0.3</v>
+      </c>
+      <c r="B70">
+        <v>38.631</v>
+      </c>
+      <c r="C70">
+        <v>3069.1046000000001</v>
+      </c>
+      <c r="D70">
+        <v>1.7438</v>
+      </c>
+      <c r="F70">
+        <v>0.3</v>
+      </c>
+      <c r="G70">
+        <v>38.631</v>
+      </c>
+      <c r="H70">
+        <v>7.0374999999999996</v>
+      </c>
+      <c r="I70">
+        <v>0.1721</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>5.4173099999999996</v>
+      </c>
+      <c r="M70">
+        <v>1.7346699999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>0.4</v>
+      </c>
+      <c r="B71">
+        <v>64.427999999999997</v>
+      </c>
+      <c r="C71">
+        <v>14.702999999999999</v>
+      </c>
+      <c r="D71">
+        <v>1.7303599999999999</v>
+      </c>
+      <c r="F71">
+        <v>0.4</v>
+      </c>
+      <c r="G71">
+        <v>64.427999999999997</v>
+      </c>
+      <c r="H71">
+        <v>14.702999999999999</v>
+      </c>
+      <c r="I71">
+        <v>0.1724</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+      <c r="L71">
+        <v>10.3987</v>
+      </c>
+      <c r="M71">
+        <v>1.73105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>0.5</v>
+      </c>
+      <c r="B72">
+        <v>101.33799999999999</v>
+      </c>
+      <c r="C72">
+        <v>25.632999999999999</v>
+      </c>
+      <c r="D72">
+        <v>1.7426999999999999</v>
+      </c>
+      <c r="F72">
+        <v>0.5</v>
+      </c>
+      <c r="G72">
+        <v>101.33799999999999</v>
+      </c>
+      <c r="H72">
+        <v>25.632999999999999</v>
+      </c>
+      <c r="I72">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
+      <c r="L72">
+        <v>17.911000000000001</v>
+      </c>
+      <c r="M72">
+        <v>1.7343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>0.6</v>
+      </c>
+      <c r="B73">
+        <v>135.94399999999999</v>
+      </c>
+      <c r="C73">
+        <v>32.496000000000002</v>
+      </c>
+      <c r="D73">
+        <v>1.7331000000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.6</v>
+      </c>
+      <c r="G73">
+        <v>135.94399999999999</v>
+      </c>
+      <c r="H73">
+        <v>32.496000000000002</v>
+      </c>
+      <c r="I73">
+        <v>0.17088999999999999</v>
+      </c>
+      <c r="K73">
+        <v>7</v>
+      </c>
+      <c r="L73">
+        <v>28.251999999999999</v>
+      </c>
+      <c r="M73">
+        <v>1.7371000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>0.7</v>
+      </c>
+      <c r="B74">
+        <v>163.45189999999999</v>
+      </c>
+      <c r="C74">
+        <v>38.512</v>
+      </c>
+      <c r="D74">
+        <v>1.7359</v>
+      </c>
+      <c r="F74">
+        <v>0.7</v>
+      </c>
+      <c r="G74">
+        <v>163.45189999999999</v>
+      </c>
+      <c r="H74">
+        <v>38.512</v>
+      </c>
+      <c r="I74">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="K74">
+        <v>8</v>
+      </c>
+      <c r="L74">
+        <v>42.095700000000001</v>
+      </c>
+      <c r="M74">
+        <v>1.738</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>0.8</v>
+      </c>
+      <c r="B75">
+        <v>203.79599999999999</v>
+      </c>
+      <c r="C75">
+        <v>45.201000000000001</v>
+      </c>
+      <c r="D75">
+        <v>1.7171000000000001</v>
+      </c>
+      <c r="F75">
+        <v>0.8</v>
+      </c>
+      <c r="G75">
+        <v>203.79599999999999</v>
+      </c>
+      <c r="H75">
+        <v>45.201000000000001</v>
+      </c>
+      <c r="I75">
+        <v>0.17230000000000001</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <v>59.7575</v>
+      </c>
+      <c r="M75">
+        <v>1.7495000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>0.9</v>
+      </c>
+      <c r="B76">
+        <v>221.29499999999999</v>
+      </c>
+      <c r="C76">
+        <v>48.537999999999997</v>
+      </c>
+      <c r="D76">
+        <v>1.736</v>
+      </c>
+      <c r="F76">
+        <v>0.9</v>
+      </c>
+      <c r="G76">
+        <v>221.29499999999999</v>
+      </c>
+      <c r="H76">
+        <v>48.537999999999997</v>
+      </c>
+      <c r="I76">
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="K76">
+        <v>10</v>
+      </c>
+      <c r="L76">
+        <v>81.781199999999998</v>
+      </c>
+      <c r="M76">
+        <v>1.7468999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>230.86199999999999</v>
+      </c>
+      <c r="C77">
+        <v>51.17</v>
+      </c>
+      <c r="D77">
+        <v>1.7209000000000001</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>230.86199999999999</v>
+      </c>
+      <c r="H77">
+        <v>51.17</v>
+      </c>
+      <c r="I77">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="E82" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="F84" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="K84" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="G85" t="s">
+        <v>110</v>
+      </c>
+      <c r="H85" t="s">
+        <v>101</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+      <c r="M85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1.16124</v>
+      </c>
+      <c r="M86">
+        <v>0.93447000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="F87">
+        <v>0.4</v>
+      </c>
+      <c r="G87" s="13">
+        <v>344.54629999999997</v>
+      </c>
+      <c r="H87" s="13">
+        <v>109.9067</v>
+      </c>
+      <c r="I87" s="13">
+        <v>67.254999999999995</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>27.440709999999999</v>
+      </c>
+      <c r="M87">
+        <v>1.0174000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="F88">
+        <v>0.6</v>
+      </c>
+      <c r="G88" s="13">
+        <v>451.23439999999999</v>
+      </c>
+      <c r="H88" s="13">
+        <v>206.92352700000001</v>
+      </c>
+      <c r="I88" s="13">
+        <v>49.048000000000002</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>428.75080000000003</v>
+      </c>
+      <c r="M88">
+        <v>1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="F89">
+        <v>0.8</v>
+      </c>
+      <c r="G89" s="13">
+        <v>572.69425000000001</v>
+      </c>
+      <c r="H89" s="13">
+        <v>299.8732</v>
+      </c>
+      <c r="I89" s="13">
+        <v>22.545999999999999</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>3754.8062</v>
+      </c>
+      <c r="M89">
+        <v>1.8545</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13">
+        <v>2892.6075999999998</v>
+      </c>
+      <c r="H90" s="13">
+        <v>317.28390000000002</v>
+      </c>
+      <c r="I90" s="13">
+        <v>4.1471999999999998</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+      <c r="M90">
+        <v>2.7738</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="F91">
+        <v>1.2</v>
+      </c>
+      <c r="G91" s="13">
+        <v>4557.3062</v>
+      </c>
+      <c r="H91" s="13">
+        <v>449.8972</v>
+      </c>
+      <c r="I91" s="13">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="K91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>3.6789999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="F92">
+        <v>1.4</v>
+      </c>
+      <c r="G92" s="13">
+        <v>9864.2733499999995</v>
+      </c>
+      <c r="H92" s="13">
+        <v>709.00800000000004</v>
+      </c>
+      <c r="I92" s="13">
+        <v>2.5423</v>
+      </c>
+      <c r="K92">
+        <v>8</v>
+      </c>
+      <c r="M92">
+        <v>5.4661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="F93">
+        <v>1.6</v>
+      </c>
+      <c r="G93">
+        <v>19313.607260000001</v>
+      </c>
+      <c r="H93">
+        <v>1127.3794700000001</v>
+      </c>
+      <c r="I93">
+        <v>1.1292</v>
+      </c>
+      <c r="K93">
+        <v>9</v>
+      </c>
+      <c r="M93">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="F94" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34">
+        <v>1298.2367999999999</v>
+      </c>
+      <c r="I94" s="34">
+        <v>1.09165</v>
+      </c>
+      <c r="K94">
+        <v>10</v>
+      </c>
+      <c r="M94">
+        <v>11.973000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="F95" s="34">
+        <v>2</v>
+      </c>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34">
+        <v>1340.4223</v>
+      </c>
+      <c r="I95" s="34">
+        <v>1.1020099999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10">
+      <c r="F108" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+    </row>
+    <row r="109" spans="5:10">
+      <c r="F109" t="s">
+        <v>135</v>
+      </c>
+      <c r="G109" t="s">
+        <v>134</v>
+      </c>
+      <c r="H109" t="s">
+        <v>136</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10">
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>10.357900000000001</v>
+      </c>
+      <c r="G110">
+        <v>1.8491</v>
+      </c>
+      <c r="H110">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="I110">
+        <v>1.1238999999999999</v>
+      </c>
+      <c r="J110">
+        <f>SUM(F110:I110)</f>
+        <v>14.149100000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10">
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>10.4191</v>
+      </c>
+      <c r="G111">
+        <v>1.87382</v>
+      </c>
+      <c r="H111">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="I111">
+        <v>0.96257999999999999</v>
+      </c>
+      <c r="J111">
+        <f t="shared" ref="J111:J117" si="0">SUM(F111:I111)</f>
+        <v>14.0944</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10">
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>11.074960000000001</v>
+      </c>
+      <c r="G112">
+        <v>388.9905</v>
+      </c>
+      <c r="H112">
+        <v>27.372160000000001</v>
+      </c>
+      <c r="I112">
+        <v>225.37799999999999</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="0"/>
+        <v>652.81561999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10">
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>11.75905</v>
+      </c>
+      <c r="G113">
+        <v>2972.9454000000001</v>
+      </c>
+      <c r="H113">
+        <v>74.17295</v>
+      </c>
+      <c r="I113">
+        <v>1468.6130000000001</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="0"/>
+        <v>4527.4904000000006</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10">
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10">
+      <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10">
+      <c r="E116">
+        <v>8</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:10">
+      <c r="E117">
+        <v>9</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:10">
+      <c r="E118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="5:10">
+      <c r="E119">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="25">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:B13"/>
@@ -6990,6 +8333,24 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="E82:I82"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="F84:I84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7007,193 +8368,193 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7227,33 +8588,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="M2" s="25" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="M2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="1"/>
-      <c r="B3" s="25">
+      <c r="B3" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="33"/>
       <c r="D3">
         <v>0.01</v>
       </c>
@@ -7266,10 +8627,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="25">
+      <c r="M3" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="33"/>
       <c r="O3">
         <v>0.01</v>
       </c>
@@ -7499,62 +8860,62 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="L11" s="25" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="L11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="1"/>
-      <c r="B12" s="25">
+      <c r="B12" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="33"/>
       <c r="D12">
         <v>0.01</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="30">
         <v>0.05</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30">
         <v>0.1</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="30"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="25">
+      <c r="M12" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N12" s="25"/>
+      <c r="N12" s="33"/>
       <c r="O12">
         <v>0.01</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="30">
         <v>0.05</v>
       </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22">
+      <c r="R12" s="30"/>
+      <c r="S12" s="30">
         <v>0.1</v>
       </c>
-      <c r="T12" s="22"/>
+      <c r="T12" s="30"/>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
@@ -7611,25 +8972,25 @@
       <c r="T13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB13" s="22" t="s">
+      <c r="AB13" s="30" t="s">
         <v>46</v>
       </c>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="22" t="s">
+      <c r="AD13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22" t="s">
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22" t="s">
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
     </row>
     <row r="14" spans="1:38" ht="16.5">
       <c r="A14">
@@ -7671,7 +9032,7 @@
       <c r="R14">
         <v>245120</v>
       </c>
-      <c r="AB14" s="22"/>
+      <c r="AB14" s="30"/>
       <c r="AC14" s="4" t="s">
         <v>50</v>
       </c>
@@ -7734,7 +9095,7 @@
       <c r="R15">
         <v>247164</v>
       </c>
-      <c r="AB15" s="22" t="s">
+      <c r="AB15" s="30" t="s">
         <v>37</v>
       </c>
       <c r="AC15" s="4">
@@ -7746,21 +9107,21 @@
       <c r="AE15" s="12">
         <v>1480.6320000000001</v>
       </c>
-      <c r="AF15" s="22" t="s">
+      <c r="AF15" s="30" t="s">
         <v>54</v>
       </c>
       <c r="AG15" s="13">
         <v>845.00800000000004</v>
       </c>
-      <c r="AH15" s="22" t="s">
+      <c r="AH15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22" t="s">
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
     </row>
     <row r="16" spans="1:38">
       <c r="A16">
@@ -7793,7 +9154,7 @@
       <c r="R16">
         <v>249428</v>
       </c>
-      <c r="AB16" s="22"/>
+      <c r="AB16" s="30"/>
       <c r="AC16" s="4">
         <v>50</v>
       </c>
@@ -7803,15 +9164,15 @@
       <c r="AE16" s="12">
         <v>880.77099999999996</v>
       </c>
-      <c r="AF16" s="22"/>
+      <c r="AF16" s="30"/>
       <c r="AG16" s="13">
         <v>865.52700000000004</v>
       </c>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
     </row>
     <row r="17" spans="1:38">
       <c r="C17">
@@ -7842,7 +9203,7 @@
         <f>AVERAGE(R14:R16)/1024</f>
         <v>241.44270833333334</v>
       </c>
-      <c r="AB17" s="22"/>
+      <c r="AB17" s="30"/>
       <c r="AC17" s="4">
         <v>100</v>
       </c>
@@ -7852,15 +9213,15 @@
       <c r="AE17" s="12">
         <v>661.39</v>
       </c>
-      <c r="AF17" s="22"/>
+      <c r="AF17" s="30"/>
       <c r="AG17" s="13">
         <v>834.37199999999996</v>
       </c>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
     </row>
     <row r="18" spans="1:38">
       <c r="AB18" s="4" t="s">
@@ -7898,62 +9259,62 @@
       </c>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="L24" s="25" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="L24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="1"/>
-      <c r="B25" s="25">
+      <c r="B25" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="33"/>
       <c r="D25">
         <v>0.01</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="30">
         <v>0.05</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22">
+      <c r="G25" s="30"/>
+      <c r="H25" s="30">
         <v>0.1</v>
       </c>
-      <c r="I25" s="22"/>
+      <c r="I25" s="30"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="25">
+      <c r="M25" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N25" s="25"/>
+      <c r="N25" s="33"/>
       <c r="O25">
         <v>0.01</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="30">
         <v>0.05</v>
       </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22">
+      <c r="R25" s="30"/>
+      <c r="S25" s="30">
         <v>0.1</v>
       </c>
-      <c r="T25" s="22"/>
+      <c r="T25" s="30"/>
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="1" t="s">

--- a/RESULT.xlsx
+++ b/RESULT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\doors\Code\GTCLU\gtclu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F077742-1F50-4C4D-B301-B347DA2DBE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491ADB77-84D4-431A-A247-766B8C3ED9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-8310" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{4F7C4B3E-96C8-491D-87E0-B7A086813C9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F7C4B3E-96C8-491D-87E0-B7A086813C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="quality" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="time-compare" sheetId="5" r:id="rId3"/>
     <sheet name="design" sheetId="4" r:id="rId4"/>
     <sheet name="TIME" sheetId="3" r:id="rId5"/>
+    <sheet name="new-quality" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="142">
   <si>
     <t>purity</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -243,6 +244,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>=0.005</t>
@@ -265,6 +267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>=0.01</t>
@@ -287,6 +290,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>=0.05</t>
@@ -627,6 +631,14 @@
   </si>
   <si>
     <t>30k-3d-10c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pashbased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMCLU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +653,7 @@
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
     <numFmt numFmtId="180" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,11 +673,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,6 +701,14 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -749,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +862,12 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,9 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3345,7 +3370,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="small"/>
@@ -3773,11 +3798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF86EB3-EC57-4520-A5AB-13ECC4A94637}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
@@ -3790,23 +3815,23 @@
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3838,7 +3863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3876,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3914,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3952,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3990,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4066,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -4104,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -4142,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="18" customFormat="1">
+    <row r="11" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
@@ -4180,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4218,7 +4243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="18" customFormat="1">
+    <row r="13" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
@@ -4256,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4294,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -4332,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -4370,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -4408,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -4446,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -4484,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -4522,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -4560,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -4592,25 +4617,25 @@
         <v>0.95596586525700322</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="I26" s="30" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="I26" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -4648,7 +4673,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4686,7 +4711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -4724,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4762,7 +4787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4800,7 +4825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4838,7 +4863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4876,7 +4901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -4914,7 +4939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -4952,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="18" customFormat="1">
+    <row r="36" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>10</v>
       </c>
@@ -4990,7 +5015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -5028,7 +5053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="18" customFormat="1">
+    <row r="38" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>12</v>
       </c>
@@ -5066,7 +5091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -5104,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -5142,7 +5167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -5180,7 +5205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -5218,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -5256,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5294,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -5332,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -5370,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>33</v>
       </c>
@@ -5404,25 +5429,25 @@
       </c>
       <c r="M47" s="7"/>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="I53" s="30" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="I53" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5477,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -5487,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -5522,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -5557,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -5592,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5627,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -5662,7 +5687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>85</v>
       </c>
@@ -5697,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>9</v>
       </c>
@@ -5732,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
         <v>10</v>
       </c>
@@ -5768,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -5803,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>12</v>
       </c>
@@ -5838,7 +5863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -5873,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
@@ -5908,7 +5933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -5943,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -5978,7 +6003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -6013,7 +6038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
@@ -6048,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
@@ -6083,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -6115,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74">
         <f>AVERAGE(B55:B73)</f>
@@ -6131,22 +6156,22 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
@@ -6163,7 +6188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -6183,7 +6208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -6203,7 +6228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -6223,7 +6248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -6243,7 +6268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -6263,7 +6288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -6283,7 +6308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -6303,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
@@ -6323,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>10</v>
       </c>
@@ -6343,7 +6368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -6363,7 +6388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -6383,7 +6408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -6403,13 +6428,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>80</v>
       </c>
@@ -6429,10 +6454,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
@@ -6472,7 +6497,7 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6481,7 +6506,7 @@
     <col min="7" max="7" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -6495,7 +6520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>97</v>
       </c>
@@ -6509,7 +6534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
@@ -6523,7 +6548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
@@ -6537,7 +6562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>28</v>
       </c>
@@ -6551,7 +6576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
@@ -6565,7 +6590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -6579,7 +6604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
@@ -6593,7 +6618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -6607,7 +6632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
@@ -6621,7 +6646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
@@ -6635,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
@@ -6649,7 +6674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>91</v>
       </c>
@@ -6661,7 +6686,7 @@
       </c>
       <c r="D13" s="20"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>98</v>
       </c>
@@ -6673,7 +6698,7 @@
       </c>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>89</v>
       </c>
@@ -6685,7 +6710,7 @@
       </c>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>99</v>
       </c>
@@ -6697,7 +6722,7 @@
       </c>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>76</v>
       </c>
@@ -6711,7 +6736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>90</v>
       </c>
@@ -6723,7 +6748,7 @@
       </c>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>78</v>
       </c>
@@ -6737,7 +6762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>77</v>
       </c>
@@ -6751,7 +6776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>93</v>
       </c>
@@ -6763,7 +6788,7 @@
       </c>
       <c r="D21" s="20"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>79</v>
       </c>
@@ -6777,7 +6802,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>92</v>
       </c>
@@ -6789,7 +6814,7 @@
       </c>
       <c r="D23" s="20"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>94</v>
       </c>
@@ -6801,7 +6826,7 @@
       </c>
       <c r="D24" s="20"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>96</v>
       </c>
@@ -6813,7 +6838,7 @@
       </c>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>95</v>
       </c>
@@ -6831,40 +6856,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE08D89-CCFE-42FE-BB29-871C39818D87}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -6884,7 +6909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0.19989999999999999</v>
       </c>
@@ -6898,7 +6923,7 @@
         <v>2.9590833000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>0.51995190000000002</v>
       </c>
@@ -6912,7 +6937,7 @@
         <v>53.918329</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>0.75997599699999996</v>
       </c>
@@ -6932,7 +6957,7 @@
         <v>0.53466000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>0.91999189999999997</v>
       </c>
@@ -6946,7 +6971,7 @@
         <v>273.27443849999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -6963,25 +6988,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="30" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -6995,7 +7020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>9.9981999599999996E-2</v>
       </c>
@@ -7005,7 +7030,7 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>0.57999159</v>
       </c>
@@ -7015,7 +7040,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>0.87999700000000003</v>
       </c>
@@ -7025,7 +7050,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>0.97999959989999996</v>
       </c>
@@ -7035,7 +7060,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>1</v>
       </c>
@@ -7045,29 +7070,29 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="30" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -7087,7 +7112,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>0.5</v>
       </c>
@@ -7101,7 +7126,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>0.75</v>
       </c>
@@ -7113,7 +7138,7 @@
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>1</v>
       </c>
@@ -7133,7 +7158,7 @@
         <v>0.53466000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>1.25</v>
       </c>
@@ -7147,7 +7172,7 @@
         <v>273.27443849999997</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>1.5</v>
       </c>
@@ -7164,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.75</v>
       </c>
@@ -7175,7 +7200,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -7186,52 +7211,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="46" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="B49" s="30" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="F49" s="30" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="F49" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>110</v>
       </c>
@@ -7251,7 +7276,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.02</v>
       </c>
@@ -7277,7 +7302,7 @@
         <v>0.61409999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.04</v>
       </c>
@@ -7303,7 +7328,7 @@
         <v>0.53359999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.06</v>
       </c>
@@ -7329,7 +7354,7 @@
         <v>0.51529999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.08</v>
       </c>
@@ -7355,7 +7380,7 @@
         <v>0.52590000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.1</v>
       </c>
@@ -7381,7 +7406,7 @@
         <v>0.51249999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.12</v>
       </c>
@@ -7407,7 +7432,7 @@
         <v>0.52410000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.14000000000000001</v>
       </c>
@@ -7433,7 +7458,7 @@
         <v>0.52129999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.16</v>
       </c>
@@ -7459,7 +7484,7 @@
         <v>0.51939999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.18</v>
       </c>
@@ -7485,7 +7510,7 @@
         <v>0.50980000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.2</v>
       </c>
@@ -7511,35 +7536,35 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
     </row>
-    <row r="66" spans="1:13">
-      <c r="B66" s="30" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B66" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="F66" s="30" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="F66" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="K66" s="30" t="s">
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="K66" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>110</v>
       </c>
@@ -7565,7 +7590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.1</v>
       </c>
@@ -7600,7 +7625,7 @@
         <v>1.71956</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.2</v>
       </c>
@@ -7635,7 +7660,7 @@
         <v>1.7295</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.3</v>
       </c>
@@ -7670,7 +7695,7 @@
         <v>1.7346699999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.4</v>
       </c>
@@ -7705,7 +7730,7 @@
         <v>1.73105</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.5</v>
       </c>
@@ -7740,7 +7765,7 @@
         <v>1.7343</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.6</v>
       </c>
@@ -7775,7 +7800,7 @@
         <v>1.7371000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.7</v>
       </c>
@@ -7810,7 +7835,7 @@
         <v>1.738</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.8</v>
       </c>
@@ -7845,7 +7870,7 @@
         <v>1.7495000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.9</v>
       </c>
@@ -7880,7 +7905,7 @@
         <v>1.7468999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -7906,33 +7931,33 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
-      <c r="E82" s="30" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E82" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="F84" s="30" t="s">
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="F84" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="K84" s="30" t="s">
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="K84" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
         <v>110</v>
       </c>
@@ -7946,7 +7971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="28"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -7965,7 +7990,7 @@
         <v>0.93447000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -7991,7 +8016,7 @@
         <v>1.0174000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -8017,7 +8042,7 @@
         <v>1.2709999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -8043,7 +8068,7 @@
         <v>1.8545</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -8066,7 +8091,7 @@
         <v>2.7738</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -8089,7 +8114,7 @@
         <v>3.6789999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -8112,7 +8137,7 @@
         <v>5.4661</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F93">
         <v>1.6</v>
       </c>
@@ -8132,19 +8157,19 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
-      <c r="F94" s="34">
+      <c r="F94" s="30">
         <v>1.8</v>
       </c>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34">
+      <c r="G94" s="30"/>
+      <c r="H94" s="30">
         <v>1298.2367999999999</v>
       </c>
-      <c r="I94" s="34">
+      <c r="I94" s="30">
         <v>1.09165</v>
       </c>
       <c r="K94">
@@ -8154,30 +8179,30 @@
         <v>11.973000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
-      <c r="F95" s="34">
+      <c r="F95" s="30">
         <v>2</v>
       </c>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34">
+      <c r="G95" s="30"/>
+      <c r="H95" s="30">
         <v>1340.4223</v>
       </c>
-      <c r="I95" s="34">
+      <c r="I95" s="30">
         <v>1.1020099999999999</v>
       </c>
     </row>
-    <row r="108" spans="5:10">
-      <c r="F108" s="30" t="s">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F108" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-    </row>
-    <row r="109" spans="5:10">
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.2">
       <c r="F109" t="s">
         <v>135</v>
       </c>
@@ -8194,7 +8219,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="5:10">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E110">
         <v>2</v>
       </c>
@@ -8215,7 +8240,7 @@
         <v>14.149100000000001</v>
       </c>
     </row>
-    <row r="111" spans="5:10">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E111">
         <v>3</v>
       </c>
@@ -8236,7 +8261,7 @@
         <v>14.0944</v>
       </c>
     </row>
-    <row r="112" spans="5:10">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E112">
         <v>4</v>
       </c>
@@ -8257,7 +8282,7 @@
         <v>652.81561999999997</v>
       </c>
     </row>
-    <row r="113" spans="5:10">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E113">
         <v>5</v>
       </c>
@@ -8278,7 +8303,7 @@
         <v>4527.4904000000006</v>
       </c>
     </row>
-    <row r="114" spans="5:10">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E114">
         <v>6</v>
       </c>
@@ -8287,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="5:10">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E115">
         <v>7</v>
       </c>
@@ -8296,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="5:10">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E116">
         <v>8</v>
       </c>
@@ -8305,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="5:10">
+    <row r="117" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E117">
         <v>9</v>
       </c>
@@ -8314,33 +8339,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="5:10">
+    <row r="118" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E118">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="5:10">
+    <row r="119" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E119">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A43:D43"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="K84:M84"/>
@@ -8351,6 +8361,21 @@
     <mergeCell ref="E82:I82"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="F84:I84"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8365,196 +8390,196 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8571,11 +8596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE04413-D671-47C6-A598-FEF3D81BAFB0}">
   <dimension ref="A2:AL51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -8587,34 +8612,34 @@
     <col min="19" max="19" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:38">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="M2" s="33" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="M2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-    </row>
-    <row r="3" spans="1:38">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="33">
+      <c r="B3" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3">
         <v>0.01</v>
       </c>
@@ -8627,10 +8652,10 @@
       </c>
       <c r="I3" s="4"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="33">
+      <c r="M3" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N3" s="33"/>
+      <c r="N3" s="35"/>
       <c r="O3">
         <v>0.01</v>
       </c>
@@ -8643,7 +8668,7 @@
       </c>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -8699,7 +8724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8743,7 +8768,7 @@
         <v>237208</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -8784,7 +8809,7 @@
         <v>237208</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -8825,7 +8850,7 @@
         <v>237208</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <f>380876/1024</f>
         <v>371.94921875</v>
@@ -8859,65 +8884,65 @@
         <v>231.6484375</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="L11" s="33" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="L11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="33">
+      <c r="B12" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="35"/>
       <c r="D12">
         <v>0.01</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="32">
         <v>0.05</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30">
+      <c r="G12" s="32"/>
+      <c r="H12" s="32">
         <v>0.1</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="32"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="33">
+      <c r="M12" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N12" s="33"/>
+      <c r="N12" s="35"/>
       <c r="O12">
         <v>0.01</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="32">
         <v>0.05</v>
       </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30">
+      <c r="R12" s="32"/>
+      <c r="S12" s="32">
         <v>0.1</v>
       </c>
-      <c r="T12" s="30"/>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="T12" s="32"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -8972,27 +8997,27 @@
       <c r="T13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB13" s="30" t="s">
+      <c r="AB13" s="32" t="s">
         <v>46</v>
       </c>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="30" t="s">
+      <c r="AD13" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30" t="s">
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30" t="s">
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-    </row>
-    <row r="14" spans="1:38" ht="16.5">
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+    </row>
+    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -9032,7 +9057,7 @@
       <c r="R14">
         <v>245120</v>
       </c>
-      <c r="AB14" s="30"/>
+      <c r="AB14" s="32"/>
       <c r="AC14" s="4" t="s">
         <v>50</v>
       </c>
@@ -9064,7 +9089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50</v>
       </c>
@@ -9095,7 +9120,7 @@
       <c r="R15">
         <v>247164</v>
       </c>
-      <c r="AB15" s="30" t="s">
+      <c r="AB15" s="32" t="s">
         <v>37</v>
       </c>
       <c r="AC15" s="4">
@@ -9107,23 +9132,23 @@
       <c r="AE15" s="12">
         <v>1480.6320000000001</v>
       </c>
-      <c r="AF15" s="30" t="s">
+      <c r="AF15" s="32" t="s">
         <v>54</v>
       </c>
       <c r="AG15" s="13">
         <v>845.00800000000004</v>
       </c>
-      <c r="AH15" s="30" t="s">
+      <c r="AH15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30" t="s">
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-    </row>
-    <row r="16" spans="1:38">
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -9154,7 +9179,7 @@
       <c r="R16">
         <v>249428</v>
       </c>
-      <c r="AB16" s="30"/>
+      <c r="AB16" s="32"/>
       <c r="AC16" s="4">
         <v>50</v>
       </c>
@@ -9164,17 +9189,17 @@
       <c r="AE16" s="12">
         <v>880.77099999999996</v>
       </c>
-      <c r="AF16" s="30"/>
+      <c r="AF16" s="32"/>
       <c r="AG16" s="13">
         <v>865.52700000000004</v>
       </c>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-    </row>
-    <row r="17" spans="1:38">
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C17">
         <f>440668/1024</f>
         <v>430.33984375</v>
@@ -9203,7 +9228,7 @@
         <f>AVERAGE(R14:R16)/1024</f>
         <v>241.44270833333334</v>
       </c>
-      <c r="AB17" s="30"/>
+      <c r="AB17" s="32"/>
       <c r="AC17" s="4">
         <v>100</v>
       </c>
@@ -9213,17 +9238,17 @@
       <c r="AE17" s="12">
         <v>661.39</v>
       </c>
-      <c r="AF17" s="30"/>
+      <c r="AF17" s="32"/>
       <c r="AG17" s="13">
         <v>834.37199999999996</v>
       </c>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-    </row>
-    <row r="18" spans="1:38">
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AB18" s="4" t="s">
         <v>55</v>
       </c>
@@ -9258,65 +9283,65 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="L24" s="33" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="L24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-    </row>
-    <row r="25" spans="1:38">
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="33">
+      <c r="B25" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="35"/>
       <c r="D25">
         <v>0.01</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="32">
         <v>0.05</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32">
         <v>0.1</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="32"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="33">
+      <c r="M25" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N25" s="33"/>
+      <c r="N25" s="35"/>
       <c r="O25">
         <v>0.01</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="32">
         <v>0.05</v>
       </c>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30">
+      <c r="R25" s="32"/>
+      <c r="S25" s="32">
         <v>0.1</v>
       </c>
-      <c r="T25" s="30"/>
-    </row>
-    <row r="26" spans="1:38">
+      <c r="T25" s="32"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -9372,7 +9397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -9404,7 +9429,7 @@
         <v>237208</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>50</v>
       </c>
@@ -9430,7 +9455,7 @@
         <v>237208</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>100</v>
       </c>
@@ -9456,7 +9481,7 @@
         <v>237208</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C30">
         <f>482196/1024</f>
         <v>470.89453125</v>
@@ -9486,7 +9511,7 @@
         <v>231.6484375</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -9503,7 +9528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -9511,7 +9536,7 @@
         <v>1.6759999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -9519,7 +9544,7 @@
         <v>356.57100000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -9527,7 +9552,7 @@
         <v>153.19399999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -9535,7 +9560,7 @@
         <v>108.919</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H40" s="1" t="s">
         <v>58</v>
       </c>
@@ -9561,7 +9586,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H41" s="1" t="s">
         <v>65</v>
       </c>
@@ -9587,7 +9612,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H42" s="1" t="s">
         <v>66</v>
       </c>
@@ -9613,7 +9638,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H43" s="1" t="s">
         <v>67</v>
       </c>
@@ -9639,12 +9664,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P48" s="1" t="s">
         <v>68</v>
       </c>
@@ -9658,7 +9683,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="15:19">
+    <row r="49" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O49">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9675,7 +9700,7 @@
         <v>108.91</v>
       </c>
     </row>
-    <row r="50" spans="15:19">
+    <row r="50" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O50">
         <v>0.01</v>
       </c>
@@ -9692,7 +9717,7 @@
         <v>661.39</v>
       </c>
     </row>
-    <row r="51" spans="15:19">
+    <row r="51" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O51">
         <v>0.05</v>
       </c>
@@ -9711,16 +9736,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="L11:T11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
     <mergeCell ref="AB15:AB17"/>
     <mergeCell ref="AF15:AF17"/>
     <mergeCell ref="AH15:AI17"/>
@@ -9731,17 +9754,634 @@
     <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="AG13:AI13"/>
     <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="L11:T11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C208D67-7D8F-4001-9B04-367C7415126D}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.96023999999999998</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.92952999999999997</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.96984000000000004</v>
+      </c>
+      <c r="E3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.82705076406089895</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.90453853889503399</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.89741935483870905</v>
+      </c>
+      <c r="E4">
+        <v>0.05</v>
+      </c>
+      <c r="F4">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.93988319750433003</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.88238769163598496</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.113</v>
+      </c>
+      <c r="F5">
+        <v>8.0999999999999801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.91818680983466505</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.87268757171945799</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.95933594834092395</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.93121037261840101</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.98666666666666603</v>
+      </c>
+      <c r="E7">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F7">
+        <v>12.899990000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.97357903446123994</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.97956052820828199</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="E8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>15.999999999999901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.90736538440379699</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.836873335139666</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.984375</v>
+      </c>
+      <c r="E9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F9">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.99317883382688699</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.98171078714029103</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.9990234375</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.99707100000000004</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.99148999999999998</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.99951100000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.35</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.974248753800947</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.97202057081294402</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.744559076823334</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.849232474756897</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="E13">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F13">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.46154473153452302</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.64698561610629401</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="E14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.41777855463404401</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.54101917708865199</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.72860000000000003</v>
+      </c>
+      <c r="E15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="13">
+        <f>AVERAGE(B3:B15)</f>
+        <v>0.85184785301735311</v>
+      </c>
+      <c r="C16" s="13">
+        <f>AVERAGE(C3:C15)</f>
+        <v>0.87071128185553104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.97725983377088299</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.95854966579129697</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.98492462311557705</v>
+      </c>
+      <c r="E20">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.84179054661289598</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.91010811692091098</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.90322580645161199</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="F21">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.97148543882166305</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.93458172786764404</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0.99583333333333302</v>
+      </c>
+      <c r="E22">
+        <v>0.11</v>
+      </c>
+      <c r="F22">
+        <v>7.8999999000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.31</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.94913560275238396</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.92394205840614596</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F24">
+        <v>8.9999900000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.98370158229453397</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.98564953906634001</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.99333333333333296</v>
+      </c>
+      <c r="E25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.94224697932016299</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.88104995503279904</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0.986328125</v>
+      </c>
+      <c r="E26">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F26">
+        <v>37.900000000000198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.99804973509708195</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.99492332969870501</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.35</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.97712443324878895</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.974403167229835</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.75123693190632301</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.85213454511184406</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="E30">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F30">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.467082216808479</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.57882692509045197</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.44633370047219001</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.53470050454487195</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E32">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="13">
+        <f>AVERAGE(B20:B32)</f>
+        <v>0.86964976931579885</v>
+      </c>
+      <c r="C33" s="13">
+        <f>AVERAGE(C20:C32)</f>
+        <v>0.88683611805852658</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>